--- a/Outputs/1. Budget/Grid Search/Output Files/750000/Output_16_30.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/750000/Output_16_30.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1832935.408874624</v>
+        <v>1860400.752839626</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6486630.972584561</v>
+        <v>6486630.972584558</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8038776.791433509</v>
+        <v>8038776.79143351</v>
       </c>
     </row>
     <row r="11">
@@ -1372,7 +1372,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>52.60574999046317</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -1381,16 +1381,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>298.6171795920322</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>411.6062992654567</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>301.6186538912489</v>
       </c>
       <c r="I11" t="n">
-        <v>67.96895394968163</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1423,19 +1423,19 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>206.9146911261644</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>251.0499378478622</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1463,7 +1463,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>85.22504708635407</v>
+        <v>135.3657483393379</v>
       </c>
       <c r="H12" t="n">
         <v>93.13436112172582</v>
@@ -1505,7 +1505,7 @@
         <v>192.192932426668</v>
       </c>
       <c r="U12" t="n">
-        <v>225.8112657109832</v>
+        <v>175.6705644579993</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -1527,13 +1527,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>111.2019796226323</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -1545,10 +1545,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>147.485201092913</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>60.99441929446463</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1596,7 +1596,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1606,22 +1606,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>411.6062992654567</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1657,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>124.7874829717001</v>
       </c>
       <c r="T14" t="n">
-        <v>206.9146911261644</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -1669,13 +1669,13 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>338.8901064216819</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>372.4906138843224</v>
       </c>
     </row>
     <row r="15">
@@ -1700,13 +1700,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>135.3657483393379</v>
+        <v>85.22504708635493</v>
       </c>
       <c r="H15" t="n">
-        <v>93.13436112172583</v>
+        <v>93.13436112172582</v>
       </c>
       <c r="I15" t="n">
-        <v>21.30239922246436</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1742,7 +1742,7 @@
         <v>192.192932426668</v>
       </c>
       <c r="U15" t="n">
-        <v>154.3681652355341</v>
+        <v>225.8112657109832</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1773,7 +1773,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>102.739413241946</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>195.1205252336517</v>
       </c>
       <c r="T16" t="n">
         <v>220.8610019386828</v>
@@ -1824,13 +1824,13 @@
         <v>286.2285878140705</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>39.0124451994319</v>
+        <v>101.803804565104</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1843,28 +1843,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>340.682741002073</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>411.6062992654567</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>301.6186538912489</v>
       </c>
       <c r="I17" t="n">
-        <v>67.96895394968163</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,25 +1894,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>124.7874829717001</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>6.422982819684784</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>251.0499378478622</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -1937,13 +1937,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>85.22504708635316</v>
+        <v>135.3657483393379</v>
       </c>
       <c r="H18" t="n">
         <v>93.13436112172582</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>21.30239922246435</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1973,7 +1973,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>134.9469826428689</v>
+        <v>63.50388216742162</v>
       </c>
       <c r="T18" t="n">
         <v>192.192932426668</v>
@@ -2001,25 +2001,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.3328844140846</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>147.485201092913</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2052,25 +2052,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>195.1205252336517</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>220.8610019386828</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2285878140705</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>111.0278073418906</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>77.22810184760129</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2092,10 +2092,10 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>83.97561525252777</v>
       </c>
       <c r="G20" t="n">
-        <v>26.34053822822842</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2143,7 +2143,7 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -2177,7 +2177,7 @@
         <v>135.3657483393379</v>
       </c>
       <c r="H21" t="n">
-        <v>42.99365986874195</v>
+        <v>42.99365986874283</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2241,7 +2241,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>110.7810918193345</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2289,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>53.76397372915823</v>
+        <v>195.1205252336517</v>
       </c>
       <c r="T22" t="n">
         <v>220.8610019386828</v>
@@ -2298,7 +2298,7 @@
         <v>286.2285878140705</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2317,19 +2317,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>142.9857690787158</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>411.6062992654567</v>
@@ -2371,19 +2371,19 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>206.9146911261644</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>251.0499378478622</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>205.6415987578384</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -2414,10 +2414,10 @@
         <v>135.3657483393379</v>
       </c>
       <c r="H24" t="n">
-        <v>93.13436112172582</v>
+        <v>93.13436112172576</v>
       </c>
       <c r="I24" t="n">
-        <v>21.30239922246471</v>
+        <v>21.30239922246435</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2487,7 +2487,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>42.42703359015142</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>102.739413241946</v>
       </c>
       <c r="S25" t="n">
         <v>195.1205252336517</v>
@@ -2538,13 +2538,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>77.22810184760124</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2554,28 +2554,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>411.6062992654567</v>
+        <v>208.4700270463478</v>
       </c>
       <c r="H26" t="n">
-        <v>69.41185721138606</v>
+        <v>301.6186538912489</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>67.96895394968163</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2608,13 +2608,13 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>206.9146911261644</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -2623,7 +2623,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>5.552678011810285</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2733,7 +2733,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>105.5870378728063</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>102.739413241946</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>195.1205252336517</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -2775,7 +2775,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>94.10752648388907</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2791,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>181.4993946796075</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2803,13 +2803,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>116.8390653425465</v>
       </c>
       <c r="G29" t="n">
         <v>411.6062992654567</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>301.6186538912489</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2845,7 +2845,7 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>206.9146911261644</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -2854,13 +2854,13 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2952,19 +2952,19 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.3328844140846</v>
       </c>
       <c r="H31" t="n">
         <v>147.485201092913</v>
@@ -3000,25 +3000,25 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>195.1205252336517</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>220.8610019386828</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2285878140705</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>74.45664454337654</v>
       </c>
       <c r="X31" t="n">
-        <v>155.4525561437254</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3028,16 +3028,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>210.064918175394</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
@@ -3079,22 +3079,22 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>124.7874829717001</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>251.0499378478622</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>153.44859463681</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -3192,7 +3192,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>67.4979083154968</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3201,10 +3201,10 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.3328844140846</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>147.485201092913</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3237,10 +3237,10 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>195.1205252336517</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>220.8610019386828</v>
       </c>
       <c r="U34" t="n">
         <v>286.2285878140705</v>
@@ -3249,10 +3249,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>191.0441220391973</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3268,19 +3268,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>411.6062992654567</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>77.54728525390013</v>
+        <v>124.7874829717001</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -3328,7 +3328,7 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>51.28621389767804</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
@@ -3362,10 +3362,10 @@
         <v>135.3657483393379</v>
       </c>
       <c r="H36" t="n">
-        <v>42.99365986874195</v>
+        <v>93.13436112172583</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>21.30239922246436</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3398,7 +3398,7 @@
         <v>134.9469826428689</v>
       </c>
       <c r="T36" t="n">
-        <v>192.192932426668</v>
+        <v>120.7498319512199</v>
       </c>
       <c r="U36" t="n">
         <v>225.8112657109832</v>
@@ -3423,16 +3423,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3444,7 +3444,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>105.5870378728063</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>102.739413241946</v>
       </c>
       <c r="S37" t="n">
-        <v>151.8934178742684</v>
+        <v>195.1205252336517</v>
       </c>
       <c r="T37" t="n">
         <v>220.8610019386828</v>
@@ -3483,10 +3483,10 @@
         <v>286.2285878140705</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>4.642806604811098</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3505,10 +3505,10 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -3517,7 +3517,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>411.6062992654567</v>
+        <v>404.2722074515197</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3556,22 +3556,22 @@
         <v>124.7874829717001</v>
       </c>
       <c r="T38" t="n">
-        <v>65.37646249984536</v>
+        <v>206.9146911261644</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>251.0499378478622</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3584,7 +3584,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>172.7084989883157</v>
+        <v>101.2653985128675</v>
       </c>
       <c r="D39" t="n">
         <v>147.4450655646388</v>
@@ -3599,10 +3599,10 @@
         <v>135.3657483393379</v>
       </c>
       <c r="H39" t="n">
-        <v>93.13436112172582</v>
+        <v>93.13436112172583</v>
       </c>
       <c r="I39" t="n">
-        <v>21.30239922246435</v>
+        <v>21.30239922246436</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3644,7 +3644,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>180.2518826854723</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X39" t="n">
         <v>205.7729852034775</v>
@@ -3660,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.3328844140846</v>
       </c>
       <c r="H40" t="n">
         <v>147.485201092913</v>
       </c>
       <c r="I40" t="n">
-        <v>105.5870378728063</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3711,19 +3711,19 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>19.27638811553347</v>
+        <v>195.1205252336517</v>
       </c>
       <c r="T40" t="n">
-        <v>220.8610019386828</v>
+        <v>167.0320108084292</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2285878140705</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3742,10 +3742,10 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
@@ -3754,10 +3754,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>411.6062992654567</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>301.6186538912489</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3790,25 +3790,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>124.7874829717001</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>184.1110499204104</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>251.0499378478622</v>
+        <v>157.3735656944172</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -3833,13 +3833,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>63.92264786389057</v>
+        <v>85.22504708635404</v>
       </c>
       <c r="H42" t="n">
-        <v>93.13436112172582</v>
+        <v>93.13436112172583</v>
       </c>
       <c r="I42" t="n">
-        <v>21.30239922246435</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3897,25 +3897,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>20.41390895113174</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>147.485201092913</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3951,10 +3951,10 @@
         <v>195.1205252336517</v>
       </c>
       <c r="T43" t="n">
-        <v>220.8610019386828</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2285878140705</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3963,10 +3963,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>77.22810184760125</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3976,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
@@ -3991,7 +3991,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>27.14400981944675</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4045,7 +4045,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>30.64810681202023</v>
       </c>
     </row>
     <row r="45">
@@ -4064,7 +4064,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
-        <v>157.6450804554009</v>
+        <v>107.504379202417</v>
       </c>
       <c r="F45" t="n">
         <v>145.0692123933839</v>
@@ -4073,7 +4073,7 @@
         <v>135.3657483393379</v>
       </c>
       <c r="H45" t="n">
-        <v>42.99365986874151</v>
+        <v>93.13436112172583</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4137,7 +4137,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>110.7810918193345</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4194,7 +4194,7 @@
         <v>286.2285878140705</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4203,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>77.22810184760128</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -5017,25 +5017,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1895.286867859701</v>
+        <v>793.4085096902918</v>
       </c>
       <c r="C11" t="n">
-        <v>1526.324350919289</v>
+        <v>740.2713884878037</v>
       </c>
       <c r="D11" t="n">
-        <v>1526.324350919289</v>
+        <v>740.2713884878037</v>
       </c>
       <c r="E11" t="n">
-        <v>1140.536098321045</v>
+        <v>354.4831358895594</v>
       </c>
       <c r="F11" t="n">
-        <v>838.9025835816184</v>
+        <v>354.4831358895594</v>
       </c>
       <c r="G11" t="n">
-        <v>423.1386449296419</v>
+        <v>354.4831358895594</v>
       </c>
       <c r="H11" t="n">
-        <v>118.4733379687844</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="I11" t="n">
         <v>49.81782892870199</v>
@@ -5071,22 +5071,22 @@
         <v>2490.8914464351</v>
       </c>
       <c r="T11" t="n">
-        <v>2281.886707923823</v>
+        <v>2490.8914464351</v>
       </c>
       <c r="U11" t="n">
-        <v>2281.886707923823</v>
+        <v>2237.305650629178</v>
       </c>
       <c r="V11" t="n">
-        <v>2281.886707923823</v>
+        <v>1906.242763285607</v>
       </c>
       <c r="W11" t="n">
-        <v>2281.886707923823</v>
+        <v>1553.474108015493</v>
       </c>
       <c r="X11" t="n">
-        <v>2281.886707923823</v>
+        <v>1180.008349754414</v>
       </c>
       <c r="Y11" t="n">
-        <v>2281.886707923823</v>
+        <v>1180.008349754414</v>
       </c>
     </row>
     <row r="12">
@@ -5096,19 +5096,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>859.1382992416507</v>
+        <v>909.7854722244628</v>
       </c>
       <c r="C12" t="n">
-        <v>684.6852699605237</v>
+        <v>735.3324429433358</v>
       </c>
       <c r="D12" t="n">
-        <v>535.7508602992724</v>
+        <v>586.3980332820845</v>
       </c>
       <c r="E12" t="n">
-        <v>376.5134052938169</v>
+        <v>427.1605782766289</v>
       </c>
       <c r="F12" t="n">
-        <v>229.9788473207019</v>
+        <v>280.6260203035139</v>
       </c>
       <c r="G12" t="n">
         <v>143.8929411728695</v>
@@ -5120,28 +5120,28 @@
         <v>49.81782892870199</v>
       </c>
       <c r="J12" t="n">
-        <v>141.515008796443</v>
+        <v>109.235802444016</v>
       </c>
       <c r="K12" t="n">
-        <v>583.0451988570712</v>
+        <v>288.9454078621915</v>
       </c>
       <c r="L12" t="n">
-        <v>871.0094820397338</v>
+        <v>576.9096910448541</v>
       </c>
       <c r="M12" t="n">
-        <v>1226.407086288405</v>
+        <v>932.3072952935257</v>
       </c>
       <c r="N12" t="n">
-        <v>1605.61965251871</v>
+        <v>1311.519861523831</v>
       </c>
       <c r="O12" t="n">
-        <v>1930.305270232467</v>
+        <v>1636.205479237587</v>
       </c>
       <c r="P12" t="n">
-        <v>2171.561036994176</v>
+        <v>2149.150088787597</v>
       </c>
       <c r="Q12" t="n">
-        <v>2490.8914464351</v>
+        <v>2468.48049822852</v>
       </c>
       <c r="R12" t="n">
         <v>2490.8914464351</v>
@@ -5153,19 +5153,19 @@
         <v>2160.447087779001</v>
       </c>
       <c r="U12" t="n">
-        <v>1932.35490019215</v>
+        <v>1983.002073174962</v>
       </c>
       <c r="V12" t="n">
-        <v>1697.202791960407</v>
+        <v>1747.849964943219</v>
       </c>
       <c r="W12" t="n">
-        <v>1442.965435232205</v>
+        <v>1493.612608215017</v>
       </c>
       <c r="X12" t="n">
-        <v>1235.113935026673</v>
+        <v>1285.761108009485</v>
       </c>
       <c r="Y12" t="n">
-        <v>1027.353636261719</v>
+        <v>1078.000809244531</v>
       </c>
     </row>
     <row r="13">
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>663.6736923492481</v>
+        <v>555.2063451477708</v>
       </c>
       <c r="C13" t="n">
-        <v>494.7375094213412</v>
+        <v>555.2063451477708</v>
       </c>
       <c r="D13" t="n">
-        <v>344.6208700090054</v>
+        <v>555.2063451477708</v>
       </c>
       <c r="E13" t="n">
-        <v>196.7077764266124</v>
+        <v>407.2932515653777</v>
       </c>
       <c r="F13" t="n">
-        <v>49.81782892870199</v>
+        <v>260.4033040674673</v>
       </c>
       <c r="G13" t="n">
-        <v>49.81782892870199</v>
+        <v>260.4033040674673</v>
       </c>
       <c r="H13" t="n">
-        <v>49.81782892870199</v>
+        <v>111.4283534685653</v>
       </c>
       <c r="I13" t="n">
         <v>49.81782892870199</v>
@@ -5244,7 +5244,7 @@
         <v>775.9989242913009</v>
       </c>
       <c r="Y13" t="n">
-        <v>775.9989242913009</v>
+        <v>555.2063451477708</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1162.834297074108</v>
+        <v>1262.35592496853</v>
       </c>
       <c r="C14" t="n">
-        <v>793.8717801336968</v>
+        <v>1262.35592496853</v>
       </c>
       <c r="D14" t="n">
-        <v>435.6060815269462</v>
+        <v>1262.35592496853</v>
       </c>
       <c r="E14" t="n">
-        <v>49.81782892870198</v>
+        <v>876.5676723702861</v>
       </c>
       <c r="F14" t="n">
-        <v>49.81782892870198</v>
+        <v>465.5817675806785</v>
       </c>
       <c r="G14" t="n">
-        <v>49.81782892870198</v>
+        <v>49.81782892870201</v>
       </c>
       <c r="H14" t="n">
-        <v>49.81782892870198</v>
+        <v>49.81782892870201</v>
       </c>
       <c r="I14" t="n">
-        <v>49.81782892870198</v>
+        <v>49.81782892870201</v>
       </c>
       <c r="J14" t="n">
-        <v>181.1756535819836</v>
+        <v>181.1756535819845</v>
       </c>
       <c r="K14" t="n">
-        <v>428.7854999799488</v>
+        <v>428.78549997995</v>
       </c>
       <c r="L14" t="n">
-        <v>772.8691714549152</v>
+        <v>772.8691714549163</v>
       </c>
       <c r="M14" t="n">
-        <v>1187.397991240658</v>
+        <v>1187.39799124066</v>
       </c>
       <c r="N14" t="n">
-        <v>1613.248129085907</v>
+        <v>1613.248129085908</v>
       </c>
       <c r="O14" t="n">
-        <v>2002.031077317524</v>
+        <v>2002.031077317525</v>
       </c>
       <c r="P14" t="n">
-        <v>2299.347327962849</v>
+        <v>2299.347327962851</v>
       </c>
       <c r="Q14" t="n">
-        <v>2474.446703561746</v>
+        <v>2474.446703561748</v>
       </c>
       <c r="R14" t="n">
-        <v>2490.891446435099</v>
+        <v>2490.891446435101</v>
       </c>
       <c r="S14" t="n">
-        <v>2490.891446435099</v>
+        <v>2364.843483837424</v>
       </c>
       <c r="T14" t="n">
-        <v>2281.886707923822</v>
+        <v>2364.843483837424</v>
       </c>
       <c r="U14" t="n">
-        <v>2281.886707923822</v>
+        <v>2364.843483837424</v>
       </c>
       <c r="V14" t="n">
-        <v>2281.886707923822</v>
+        <v>2364.843483837424</v>
       </c>
       <c r="W14" t="n">
-        <v>1939.573469114042</v>
+        <v>2012.07482856731</v>
       </c>
       <c r="X14" t="n">
-        <v>1939.573469114042</v>
+        <v>1638.60907030623</v>
       </c>
       <c r="Y14" t="n">
-        <v>1549.43413713823</v>
+        <v>1262.35592496853</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>931.3030471966489</v>
+        <v>859.1382992416516</v>
       </c>
       <c r="C15" t="n">
-        <v>756.8500179155219</v>
+        <v>684.6852699605246</v>
       </c>
       <c r="D15" t="n">
-        <v>607.9156082542706</v>
+        <v>535.7508602992733</v>
       </c>
       <c r="E15" t="n">
-        <v>448.6781532488151</v>
+        <v>376.5134052938178</v>
       </c>
       <c r="F15" t="n">
-        <v>302.1435952757001</v>
+        <v>229.9788473207028</v>
       </c>
       <c r="G15" t="n">
-        <v>165.4105161450557</v>
+        <v>143.8929411728695</v>
       </c>
       <c r="H15" t="n">
-        <v>71.3354039008882</v>
+        <v>49.81782892870201</v>
       </c>
       <c r="I15" t="n">
-        <v>49.81782892870198</v>
+        <v>49.81782892870201</v>
       </c>
       <c r="J15" t="n">
-        <v>141.5150087964426</v>
+        <v>234.0659274310208</v>
       </c>
       <c r="K15" t="n">
-        <v>583.0451988570708</v>
+        <v>560.634250650493</v>
       </c>
       <c r="L15" t="n">
-        <v>871.0094820397333</v>
+        <v>848.5985338331556</v>
       </c>
       <c r="M15" t="n">
-        <v>1226.407086288405</v>
+        <v>1203.996138081827</v>
       </c>
       <c r="N15" t="n">
-        <v>1605.619652518709</v>
+        <v>1583.208704312132</v>
       </c>
       <c r="O15" t="n">
-        <v>1930.305270232466</v>
+        <v>1907.894322025889</v>
       </c>
       <c r="P15" t="n">
-        <v>2171.561036994176</v>
+        <v>2149.150088787598</v>
       </c>
       <c r="Q15" t="n">
-        <v>2490.891446435099</v>
+        <v>2468.480498228521</v>
       </c>
       <c r="R15" t="n">
-        <v>2490.891446435099</v>
+        <v>2490.891446435101</v>
       </c>
       <c r="S15" t="n">
-        <v>2354.581362957453</v>
+        <v>2354.581362957455</v>
       </c>
       <c r="T15" t="n">
-        <v>2160.447087779</v>
+        <v>2160.447087779002</v>
       </c>
       <c r="U15" t="n">
-        <v>2004.519648147148</v>
+        <v>1932.354900192151</v>
       </c>
       <c r="V15" t="n">
-        <v>1769.367539915405</v>
+        <v>1697.202791960408</v>
       </c>
       <c r="W15" t="n">
-        <v>1515.130183187204</v>
+        <v>1442.965435232206</v>
       </c>
       <c r="X15" t="n">
-        <v>1307.278682981671</v>
+        <v>1235.113935026674</v>
       </c>
       <c r="Y15" t="n">
-        <v>1099.518384216717</v>
+        <v>1027.35363626172</v>
       </c>
     </row>
     <row r="16">
@@ -5412,13 +5412,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>365.7439370707765</v>
+        <v>217.8308434883834</v>
       </c>
       <c r="C16" t="n">
-        <v>365.7439370707765</v>
+        <v>217.8308434883834</v>
       </c>
       <c r="D16" t="n">
-        <v>365.7439370707765</v>
+        <v>217.8308434883834</v>
       </c>
       <c r="E16" t="n">
         <v>217.8308434883834</v>
@@ -5427,25 +5427,25 @@
         <v>217.8308434883834</v>
       </c>
       <c r="G16" t="n">
-        <v>49.81782892870198</v>
+        <v>49.81782892870201</v>
       </c>
       <c r="H16" t="n">
-        <v>49.81782892870198</v>
+        <v>49.81782892870201</v>
       </c>
       <c r="I16" t="n">
-        <v>49.81782892870198</v>
+        <v>49.81782892870201</v>
       </c>
       <c r="J16" t="n">
-        <v>73.4472800547763</v>
+        <v>73.44728005477636</v>
       </c>
       <c r="K16" t="n">
-        <v>242.1145636490678</v>
+        <v>242.1145636490679</v>
       </c>
       <c r="L16" t="n">
-        <v>513.4770511394355</v>
+        <v>513.4770511394356</v>
       </c>
       <c r="M16" t="n">
-        <v>809.97986946425</v>
+        <v>809.9798694642501</v>
       </c>
       <c r="N16" t="n">
         <v>1104.867129907538</v>
@@ -5457,31 +5457,31 @@
         <v>1557.066378230431</v>
       </c>
       <c r="Q16" t="n">
-        <v>1609.220368204926</v>
+        <v>1609.220368204927</v>
       </c>
       <c r="R16" t="n">
-        <v>1609.220368204926</v>
+        <v>1505.443183112052</v>
       </c>
       <c r="S16" t="n">
-        <v>1609.220368204926</v>
+        <v>1308.351743482101</v>
       </c>
       <c r="T16" t="n">
-        <v>1386.128447054742</v>
+        <v>1085.259822331916</v>
       </c>
       <c r="U16" t="n">
-        <v>1097.008661383963</v>
+        <v>796.1400366611377</v>
       </c>
       <c r="V16" t="n">
-        <v>1097.008661383963</v>
+        <v>541.4555484552509</v>
       </c>
       <c r="W16" t="n">
-        <v>807.5914913470028</v>
+        <v>541.4555484552509</v>
       </c>
       <c r="X16" t="n">
-        <v>768.1849810445464</v>
+        <v>438.6234226319135</v>
       </c>
       <c r="Y16" t="n">
-        <v>547.3924019010162</v>
+        <v>217.8308434883834</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1991.377725576342</v>
+        <v>770.247074541536</v>
       </c>
       <c r="C17" t="n">
-        <v>1622.41520863593</v>
+        <v>770.247074541536</v>
       </c>
       <c r="D17" t="n">
-        <v>1264.14951002918</v>
+        <v>770.247074541536</v>
       </c>
       <c r="E17" t="n">
-        <v>878.3612574309357</v>
+        <v>770.247074541536</v>
       </c>
       <c r="F17" t="n">
-        <v>534.2372766207609</v>
+        <v>770.247074541536</v>
       </c>
       <c r="G17" t="n">
-        <v>118.4733379687844</v>
+        <v>354.4831358895594</v>
       </c>
       <c r="H17" t="n">
-        <v>118.4733379687844</v>
+        <v>49.81782892870201</v>
       </c>
       <c r="I17" t="n">
-        <v>49.81782892870198</v>
+        <v>49.81782892870201</v>
       </c>
       <c r="J17" t="n">
-        <v>181.1756535819834</v>
+        <v>181.1756535819845</v>
       </c>
       <c r="K17" t="n">
-        <v>428.7854999799488</v>
+        <v>428.7854999799501</v>
       </c>
       <c r="L17" t="n">
-        <v>772.8691714549152</v>
+        <v>772.8691714549166</v>
       </c>
       <c r="M17" t="n">
-        <v>1187.397991240659</v>
+        <v>1187.39799124066</v>
       </c>
       <c r="N17" t="n">
-        <v>1613.248129085907</v>
+        <v>1613.248129085909</v>
       </c>
       <c r="O17" t="n">
-        <v>2002.031077317524</v>
+        <v>2002.031077317525</v>
       </c>
       <c r="P17" t="n">
-        <v>2299.347327962849</v>
+        <v>2299.34732796285</v>
       </c>
       <c r="Q17" t="n">
-        <v>2474.446703561747</v>
+        <v>2474.446703561748</v>
       </c>
       <c r="R17" t="n">
-        <v>2490.891446435099</v>
+        <v>2490.891446435101</v>
       </c>
       <c r="S17" t="n">
-        <v>2364.843483837422</v>
+        <v>2490.891446435101</v>
       </c>
       <c r="T17" t="n">
-        <v>2364.843483837422</v>
+        <v>2484.403585001075</v>
       </c>
       <c r="U17" t="n">
-        <v>2364.843483837422</v>
+        <v>2230.817789195154</v>
       </c>
       <c r="V17" t="n">
-        <v>2364.843483837422</v>
+        <v>1899.754901851584</v>
       </c>
       <c r="W17" t="n">
-        <v>2364.843483837422</v>
+        <v>1546.986246581469</v>
       </c>
       <c r="X17" t="n">
-        <v>1991.377725576342</v>
+        <v>1546.986246581469</v>
       </c>
       <c r="Y17" t="n">
-        <v>1991.377725576342</v>
+        <v>1156.846914605658</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>859.1382992416497</v>
+        <v>931.3030471966489</v>
       </c>
       <c r="C18" t="n">
-        <v>684.6852699605228</v>
+        <v>756.8500179155219</v>
       </c>
       <c r="D18" t="n">
-        <v>535.7508602992715</v>
+        <v>607.9156082542706</v>
       </c>
       <c r="E18" t="n">
-        <v>376.513405293816</v>
+        <v>448.6781532488152</v>
       </c>
       <c r="F18" t="n">
-        <v>229.978847320701</v>
+        <v>302.1435952757001</v>
       </c>
       <c r="G18" t="n">
-        <v>143.8929411728695</v>
+        <v>165.4105161450557</v>
       </c>
       <c r="H18" t="n">
-        <v>49.81782892870198</v>
+        <v>71.33540390088822</v>
       </c>
       <c r="I18" t="n">
-        <v>49.81782892870198</v>
+        <v>49.81782892870201</v>
       </c>
       <c r="J18" t="n">
-        <v>109.235802444016</v>
+        <v>234.0659274310208</v>
       </c>
       <c r="K18" t="n">
-        <v>550.7659925046443</v>
+        <v>560.634250650493</v>
       </c>
       <c r="L18" t="n">
-        <v>838.7302756873069</v>
+        <v>848.5985338331556</v>
       </c>
       <c r="M18" t="n">
-        <v>1194.127879935978</v>
+        <v>1203.996138081827</v>
       </c>
       <c r="N18" t="n">
-        <v>1573.340446166283</v>
+        <v>1583.208704312132</v>
       </c>
       <c r="O18" t="n">
-        <v>1898.02606388004</v>
+        <v>1907.894322025889</v>
       </c>
       <c r="P18" t="n">
-        <v>2379.537551852666</v>
+        <v>2149.150088787598</v>
       </c>
       <c r="Q18" t="n">
-        <v>2490.891446435099</v>
+        <v>2468.480498228521</v>
       </c>
       <c r="R18" t="n">
-        <v>2490.891446435099</v>
+        <v>2490.891446435101</v>
       </c>
       <c r="S18" t="n">
-        <v>2354.581362957453</v>
+        <v>2426.746110912452</v>
       </c>
       <c r="T18" t="n">
-        <v>2160.447087779</v>
+        <v>2232.611835734</v>
       </c>
       <c r="U18" t="n">
-        <v>1932.354900192149</v>
+        <v>2004.519648147148</v>
       </c>
       <c r="V18" t="n">
-        <v>1697.202791960406</v>
+        <v>1769.367539915405</v>
       </c>
       <c r="W18" t="n">
-        <v>1442.965435232205</v>
+        <v>1515.130183187204</v>
       </c>
       <c r="X18" t="n">
-        <v>1235.113935026672</v>
+        <v>1307.278682981671</v>
       </c>
       <c r="Y18" t="n">
-        <v>1027.353636261718</v>
+        <v>1099.518384216717</v>
       </c>
     </row>
     <row r="19">
@@ -5649,31 +5649,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>49.81782892870198</v>
+        <v>832.7485639254385</v>
       </c>
       <c r="C19" t="n">
-        <v>49.81782892870198</v>
+        <v>663.8123809975316</v>
       </c>
       <c r="D19" t="n">
-        <v>49.81782892870198</v>
+        <v>513.6957415851958</v>
       </c>
       <c r="E19" t="n">
-        <v>49.81782892870198</v>
+        <v>513.6957415851958</v>
       </c>
       <c r="F19" t="n">
-        <v>49.81782892870198</v>
+        <v>366.8057940872854</v>
       </c>
       <c r="G19" t="n">
-        <v>49.81782892870198</v>
+        <v>198.792779527604</v>
       </c>
       <c r="H19" t="n">
-        <v>49.81782892870198</v>
+        <v>49.81782892870201</v>
       </c>
       <c r="I19" t="n">
-        <v>49.81782892870198</v>
+        <v>49.81782892870201</v>
       </c>
       <c r="J19" t="n">
-        <v>73.44728005477633</v>
+        <v>73.44728005477636</v>
       </c>
       <c r="K19" t="n">
         <v>242.1145636490679</v>
@@ -5700,25 +5700,25 @@
         <v>1609.220368204927</v>
       </c>
       <c r="S19" t="n">
-        <v>1412.128928574975</v>
+        <v>1609.220368204927</v>
       </c>
       <c r="T19" t="n">
-        <v>1189.037007424791</v>
+        <v>1609.220368204927</v>
       </c>
       <c r="U19" t="n">
-        <v>899.9172217540125</v>
+        <v>1609.220368204927</v>
       </c>
       <c r="V19" t="n">
-        <v>645.2327335481257</v>
+        <v>1354.53587999904</v>
       </c>
       <c r="W19" t="n">
-        <v>355.8155635111651</v>
+        <v>1242.386579653696</v>
       </c>
       <c r="X19" t="n">
-        <v>127.8260126131477</v>
+        <v>1014.397028755678</v>
       </c>
       <c r="Y19" t="n">
-        <v>49.81782892870198</v>
+        <v>1014.397028755678</v>
       </c>
     </row>
     <row r="20">
@@ -5728,40 +5728,40 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1214.63855353641</v>
+        <v>861.8698982662963</v>
       </c>
       <c r="C20" t="n">
-        <v>845.6760365959979</v>
+        <v>492.9073813258846</v>
       </c>
       <c r="D20" t="n">
-        <v>487.4103379892474</v>
+        <v>134.6416827191341</v>
       </c>
       <c r="E20" t="n">
-        <v>487.4103379892474</v>
+        <v>134.6416827191341</v>
       </c>
       <c r="F20" t="n">
-        <v>76.42443319963979</v>
+        <v>49.81782892870201</v>
       </c>
       <c r="G20" t="n">
-        <v>49.81782892870199</v>
+        <v>49.81782892870201</v>
       </c>
       <c r="H20" t="n">
-        <v>49.81782892870199</v>
+        <v>49.81782892870201</v>
       </c>
       <c r="I20" t="n">
-        <v>49.81782892870199</v>
+        <v>49.81782892870201</v>
       </c>
       <c r="J20" t="n">
-        <v>181.1756535819833</v>
+        <v>181.1756535819834</v>
       </c>
       <c r="K20" t="n">
-        <v>428.7854999799487</v>
+        <v>428.7854999799488</v>
       </c>
       <c r="L20" t="n">
-        <v>772.8691714549147</v>
+        <v>772.8691714549152</v>
       </c>
       <c r="M20" t="n">
-        <v>1187.397991240658</v>
+        <v>1187.397991240659</v>
       </c>
       <c r="N20" t="n">
         <v>1613.248129085907</v>
@@ -5776,28 +5776,28 @@
         <v>2474.446703561747</v>
       </c>
       <c r="R20" t="n">
-        <v>2490.8914464351</v>
+        <v>2490.891446435101</v>
       </c>
       <c r="S20" t="n">
-        <v>2364.843483837423</v>
+        <v>2364.843483837424</v>
       </c>
       <c r="T20" t="n">
-        <v>2364.843483837423</v>
+        <v>2364.843483837424</v>
       </c>
       <c r="U20" t="n">
-        <v>2364.843483837423</v>
+        <v>2364.843483837424</v>
       </c>
       <c r="V20" t="n">
-        <v>2364.843483837423</v>
+        <v>2364.843483837424</v>
       </c>
       <c r="W20" t="n">
-        <v>2364.843483837423</v>
+        <v>2012.07482856731</v>
       </c>
       <c r="X20" t="n">
-        <v>1991.377725576343</v>
+        <v>1638.60907030623</v>
       </c>
       <c r="Y20" t="n">
-        <v>1601.238393600531</v>
+        <v>1248.469738330418</v>
       </c>
     </row>
     <row r="21">
@@ -5807,28 +5807,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>859.1382992416507</v>
+        <v>859.1382992416516</v>
       </c>
       <c r="C21" t="n">
-        <v>684.6852699605237</v>
+        <v>684.6852699605246</v>
       </c>
       <c r="D21" t="n">
-        <v>535.7508602992724</v>
+        <v>535.7508602992733</v>
       </c>
       <c r="E21" t="n">
-        <v>376.5134052938169</v>
+        <v>376.5134052938178</v>
       </c>
       <c r="F21" t="n">
-        <v>229.9788473207019</v>
+        <v>229.9788473207028</v>
       </c>
       <c r="G21" t="n">
-        <v>93.2457681900575</v>
+        <v>93.24576819005841</v>
       </c>
       <c r="H21" t="n">
-        <v>49.81782892870199</v>
+        <v>49.81782892870201</v>
       </c>
       <c r="I21" t="n">
-        <v>49.81782892870199</v>
+        <v>49.81782892870201</v>
       </c>
       <c r="J21" t="n">
         <v>234.0659274310208</v>
@@ -5843,40 +5843,40 @@
         <v>1057.13742028053</v>
       </c>
       <c r="N21" t="n">
-        <v>1673.633053273218</v>
+        <v>1436.349986510835</v>
       </c>
       <c r="O21" t="n">
-        <v>1998.318670986975</v>
+        <v>1930.305270232468</v>
       </c>
       <c r="P21" t="n">
-        <v>2239.574437748684</v>
+        <v>2171.561036994177</v>
       </c>
       <c r="Q21" t="n">
-        <v>2468.48049822852</v>
+        <v>2490.891446435101</v>
       </c>
       <c r="R21" t="n">
-        <v>2490.8914464351</v>
+        <v>2490.891446435101</v>
       </c>
       <c r="S21" t="n">
-        <v>2354.581362957454</v>
+        <v>2354.581362957455</v>
       </c>
       <c r="T21" t="n">
-        <v>2160.447087779001</v>
+        <v>2160.447087779002</v>
       </c>
       <c r="U21" t="n">
-        <v>1932.35490019215</v>
+        <v>1932.354900192151</v>
       </c>
       <c r="V21" t="n">
-        <v>1697.202791960407</v>
+        <v>1697.202791960408</v>
       </c>
       <c r="W21" t="n">
-        <v>1442.965435232205</v>
+        <v>1442.965435232206</v>
       </c>
       <c r="X21" t="n">
-        <v>1235.113935026673</v>
+        <v>1235.113935026674</v>
       </c>
       <c r="Y21" t="n">
-        <v>1027.353636261719</v>
+        <v>1027.35363626172</v>
       </c>
     </row>
     <row r="22">
@@ -5886,31 +5886,31 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>49.81782892870199</v>
+        <v>161.7179216755045</v>
       </c>
       <c r="C22" t="n">
-        <v>49.81782892870199</v>
+        <v>49.81782892870201</v>
       </c>
       <c r="D22" t="n">
-        <v>49.81782892870199</v>
+        <v>49.81782892870201</v>
       </c>
       <c r="E22" t="n">
-        <v>49.81782892870199</v>
+        <v>49.81782892870201</v>
       </c>
       <c r="F22" t="n">
-        <v>49.81782892870199</v>
+        <v>49.81782892870201</v>
       </c>
       <c r="G22" t="n">
-        <v>49.81782892870199</v>
+        <v>49.81782892870201</v>
       </c>
       <c r="H22" t="n">
-        <v>49.81782892870199</v>
+        <v>49.81782892870201</v>
       </c>
       <c r="I22" t="n">
-        <v>49.81782892870199</v>
+        <v>49.81782892870201</v>
       </c>
       <c r="J22" t="n">
-        <v>73.44728005477634</v>
+        <v>73.44728005477636</v>
       </c>
       <c r="K22" t="n">
         <v>242.1145636490679</v>
@@ -5937,25 +5937,25 @@
         <v>1609.220368204927</v>
       </c>
       <c r="S22" t="n">
-        <v>1554.91332403406</v>
+        <v>1412.128928574975</v>
       </c>
       <c r="T22" t="n">
-        <v>1331.821402883875</v>
+        <v>1189.037007424791</v>
       </c>
       <c r="U22" t="n">
-        <v>1042.701617213097</v>
+        <v>899.9172217540125</v>
       </c>
       <c r="V22" t="n">
-        <v>788.0171290072101</v>
+        <v>899.9172217540125</v>
       </c>
       <c r="W22" t="n">
-        <v>498.5999589702494</v>
+        <v>610.500051717052</v>
       </c>
       <c r="X22" t="n">
-        <v>270.6104080722321</v>
+        <v>382.5105008190346</v>
       </c>
       <c r="Y22" t="n">
-        <v>49.81782892870199</v>
+        <v>161.7179216755045</v>
       </c>
     </row>
     <row r="23">
@@ -5965,52 +5965,52 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1380.736190711782</v>
+        <v>1580.07098568435</v>
       </c>
       <c r="C23" t="n">
-        <v>1236.306120935302</v>
+        <v>1211.108468743938</v>
       </c>
       <c r="D23" t="n">
-        <v>878.0404223285514</v>
+        <v>852.8427701371879</v>
       </c>
       <c r="E23" t="n">
-        <v>878.0404223285514</v>
+        <v>467.0545175389437</v>
       </c>
       <c r="F23" t="n">
         <v>467.0545175389437</v>
       </c>
       <c r="G23" t="n">
-        <v>51.29057888696727</v>
+        <v>51.29057888696725</v>
       </c>
       <c r="H23" t="n">
-        <v>51.29057888696727</v>
+        <v>51.29057888696725</v>
       </c>
       <c r="I23" t="n">
-        <v>51.29057888696727</v>
+        <v>51.29057888696725</v>
       </c>
       <c r="J23" t="n">
-        <v>182.6484035402487</v>
+        <v>189.7538958209936</v>
       </c>
       <c r="K23" t="n">
-        <v>430.258249938214</v>
+        <v>437.363742218959</v>
       </c>
       <c r="L23" t="n">
-        <v>774.3419214131804</v>
+        <v>781.4474136939255</v>
       </c>
       <c r="M23" t="n">
-        <v>1188.870741198924</v>
+        <v>1195.976233479669</v>
       </c>
       <c r="N23" t="n">
-        <v>1614.720879044173</v>
+        <v>1621.826371324918</v>
       </c>
       <c r="O23" t="n">
-        <v>2003.503827275789</v>
+        <v>2010.609319556535</v>
       </c>
       <c r="P23" t="n">
-        <v>2300.820077921115</v>
+        <v>2307.92557020186</v>
       </c>
       <c r="Q23" t="n">
-        <v>2483.024945800758</v>
+        <v>2483.024945800757</v>
       </c>
       <c r="R23" t="n">
         <v>2564.528944348363</v>
@@ -6019,22 +6019,22 @@
         <v>2564.528944348363</v>
       </c>
       <c r="T23" t="n">
-        <v>2355.524205837086</v>
+        <v>2564.528944348363</v>
       </c>
       <c r="U23" t="n">
-        <v>2101.938410031165</v>
+        <v>2564.528944348363</v>
       </c>
       <c r="V23" t="n">
-        <v>1770.875522687594</v>
+        <v>2564.528944348363</v>
       </c>
       <c r="W23" t="n">
-        <v>1770.875522687594</v>
+        <v>2564.528944348363</v>
       </c>
       <c r="X23" t="n">
-        <v>1770.875522687594</v>
+        <v>2356.810157724283</v>
       </c>
       <c r="Y23" t="n">
-        <v>1380.736190711782</v>
+        <v>1966.670825748472</v>
       </c>
     </row>
     <row r="24">
@@ -6044,49 +6044,49 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>932.7757971549145</v>
+        <v>932.7757971549137</v>
       </c>
       <c r="C24" t="n">
-        <v>758.3227678737875</v>
+        <v>758.3227678737867</v>
       </c>
       <c r="D24" t="n">
-        <v>609.3883582125362</v>
+        <v>609.3883582125354</v>
       </c>
       <c r="E24" t="n">
-        <v>450.1509032070807</v>
+        <v>450.1509032070799</v>
       </c>
       <c r="F24" t="n">
-        <v>303.6163452339657</v>
+        <v>303.6163452339653</v>
       </c>
       <c r="G24" t="n">
-        <v>166.8832661033213</v>
+        <v>166.8832661033209</v>
       </c>
       <c r="H24" t="n">
-        <v>72.80815385915385</v>
+        <v>72.80815385915345</v>
       </c>
       <c r="I24" t="n">
-        <v>51.29057888696727</v>
+        <v>51.29057888696725</v>
       </c>
       <c r="J24" t="n">
-        <v>235.5386773892861</v>
+        <v>110.7085524022813</v>
       </c>
       <c r="K24" t="n">
-        <v>549.3810706752879</v>
+        <v>552.2387424629095</v>
       </c>
       <c r="L24" t="n">
-        <v>837.3453538579505</v>
+        <v>840.2030256455721</v>
       </c>
       <c r="M24" t="n">
-        <v>1192.742958106622</v>
+        <v>1195.600629894244</v>
       </c>
       <c r="N24" t="n">
-        <v>1571.955524336927</v>
+        <v>1574.813196124549</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.641142050684</v>
+        <v>1899.498813838306</v>
       </c>
       <c r="P24" t="n">
-        <v>2453.175049765931</v>
+        <v>2245.198534907439</v>
       </c>
       <c r="Q24" t="n">
         <v>2564.528944348363</v>
@@ -6095,25 +6095,25 @@
         <v>2564.528944348363</v>
       </c>
       <c r="S24" t="n">
-        <v>2428.218860870718</v>
+        <v>2428.218860870717</v>
       </c>
       <c r="T24" t="n">
-        <v>2234.084585692265</v>
+        <v>2234.084585692264</v>
       </c>
       <c r="U24" t="n">
         <v>2005.992398105413</v>
       </c>
       <c r="V24" t="n">
-        <v>1770.840289873671</v>
+        <v>1770.84028987367</v>
       </c>
       <c r="W24" t="n">
-        <v>1516.602933145469</v>
+        <v>1516.602933145468</v>
       </c>
       <c r="X24" t="n">
         <v>1308.751432939936</v>
       </c>
       <c r="Y24" t="n">
-        <v>1100.991134174983</v>
+        <v>1100.991134174982</v>
       </c>
     </row>
     <row r="25">
@@ -6123,40 +6123,40 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>51.29057888696727</v>
+        <v>94.14616837196868</v>
       </c>
       <c r="C25" t="n">
-        <v>51.29057888696727</v>
+        <v>94.14616837196868</v>
       </c>
       <c r="D25" t="n">
-        <v>51.29057888696727</v>
+        <v>94.14616837196868</v>
       </c>
       <c r="E25" t="n">
-        <v>51.29057888696727</v>
+        <v>94.14616837196868</v>
       </c>
       <c r="F25" t="n">
-        <v>51.29057888696727</v>
+        <v>51.29057888696725</v>
       </c>
       <c r="G25" t="n">
-        <v>51.29057888696727</v>
+        <v>51.29057888696725</v>
       </c>
       <c r="H25" t="n">
-        <v>51.29057888696727</v>
+        <v>51.29057888696725</v>
       </c>
       <c r="I25" t="n">
-        <v>51.29057888696727</v>
+        <v>51.29057888696725</v>
       </c>
       <c r="J25" t="n">
-        <v>74.92003001304161</v>
+        <v>74.9200300130416</v>
       </c>
       <c r="K25" t="n">
         <v>243.5873136073331</v>
       </c>
       <c r="L25" t="n">
-        <v>514.949801097701</v>
+        <v>514.9498010977009</v>
       </c>
       <c r="M25" t="n">
-        <v>811.4526194225155</v>
+        <v>811.4526194225153</v>
       </c>
       <c r="N25" t="n">
         <v>1106.339879865804</v>
@@ -6171,28 +6171,28 @@
         <v>1610.693118163192</v>
       </c>
       <c r="R25" t="n">
-        <v>1610.693118163192</v>
+        <v>1506.915933070317</v>
       </c>
       <c r="S25" t="n">
-        <v>1413.601678533241</v>
+        <v>1309.824493440366</v>
       </c>
       <c r="T25" t="n">
-        <v>1190.509757383056</v>
+        <v>1086.732572290181</v>
       </c>
       <c r="U25" t="n">
-        <v>901.3899717122778</v>
+        <v>797.612786619403</v>
       </c>
       <c r="V25" t="n">
-        <v>646.7054835063909</v>
+        <v>542.9282984135161</v>
       </c>
       <c r="W25" t="n">
-        <v>357.2883134694303</v>
+        <v>542.9282984135161</v>
       </c>
       <c r="X25" t="n">
-        <v>129.298762571413</v>
+        <v>314.9387475154988</v>
       </c>
       <c r="Y25" t="n">
-        <v>51.29057888696727</v>
+        <v>94.14616837196868</v>
       </c>
     </row>
     <row r="26">
@@ -6202,52 +6202,52 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1264.395720168314</v>
+        <v>1800.923854111471</v>
       </c>
       <c r="C26" t="n">
-        <v>895.4332032279024</v>
+        <v>1431.96133717106</v>
       </c>
       <c r="D26" t="n">
-        <v>537.1675046211519</v>
+        <v>1431.96133717106</v>
       </c>
       <c r="E26" t="n">
-        <v>537.1675046211519</v>
+        <v>1046.173084572815</v>
       </c>
       <c r="F26" t="n">
-        <v>537.1675046211519</v>
+        <v>635.187179783208</v>
       </c>
       <c r="G26" t="n">
-        <v>121.4035659691754</v>
+        <v>424.6113948879072</v>
       </c>
       <c r="H26" t="n">
-        <v>51.29057888696727</v>
+        <v>119.9460879270497</v>
       </c>
       <c r="I26" t="n">
-        <v>51.29057888696727</v>
+        <v>51.29057888696726</v>
       </c>
       <c r="J26" t="n">
-        <v>189.7538958209945</v>
+        <v>182.6484035402487</v>
       </c>
       <c r="K26" t="n">
-        <v>437.3637422189599</v>
+        <v>430.258249938214</v>
       </c>
       <c r="L26" t="n">
-        <v>781.4474136939264</v>
+        <v>774.3419214131804</v>
       </c>
       <c r="M26" t="n">
-        <v>1195.97623347967</v>
+        <v>1261.035489153922</v>
       </c>
       <c r="N26" t="n">
-        <v>1621.826371324918</v>
+        <v>1686.885626999171</v>
       </c>
       <c r="O26" t="n">
-        <v>2010.609319556535</v>
+        <v>2075.668575230788</v>
       </c>
       <c r="P26" t="n">
-        <v>2307.92557020186</v>
+        <v>2372.984825876113</v>
       </c>
       <c r="Q26" t="n">
-        <v>2483.024945800758</v>
+        <v>2548.08420147501</v>
       </c>
       <c r="R26" t="n">
         <v>2564.528944348363</v>
@@ -6256,22 +6256,22 @@
         <v>2564.528944348363</v>
       </c>
       <c r="T26" t="n">
-        <v>2355.524205837086</v>
+        <v>2564.528944348363</v>
       </c>
       <c r="U26" t="n">
-        <v>2355.524205837086</v>
+        <v>2564.528944348363</v>
       </c>
       <c r="V26" t="n">
-        <v>2024.461318493516</v>
+        <v>2564.528944348363</v>
       </c>
       <c r="W26" t="n">
-        <v>2024.461318493516</v>
+        <v>2564.528944348363</v>
       </c>
       <c r="X26" t="n">
-        <v>1650.995560232436</v>
+        <v>2191.063186087283</v>
       </c>
       <c r="Y26" t="n">
-        <v>1650.995560232436</v>
+        <v>1800.923854111471</v>
       </c>
     </row>
     <row r="27">
@@ -6287,43 +6287,43 @@
         <v>758.322767873787</v>
       </c>
       <c r="D27" t="n">
-        <v>609.3883582125359</v>
+        <v>609.3883582125356</v>
       </c>
       <c r="E27" t="n">
-        <v>450.1509032070803</v>
+        <v>450.1509032070801</v>
       </c>
       <c r="F27" t="n">
-        <v>303.6163452339654</v>
+        <v>303.6163452339651</v>
       </c>
       <c r="G27" t="n">
-        <v>166.883266103321</v>
+        <v>166.8832661033211</v>
       </c>
       <c r="H27" t="n">
-        <v>72.80815385915349</v>
+        <v>72.80815385915366</v>
       </c>
       <c r="I27" t="n">
-        <v>51.29057888696727</v>
+        <v>51.29057888696726</v>
       </c>
       <c r="J27" t="n">
         <v>235.5386773892861</v>
       </c>
       <c r="K27" t="n">
-        <v>677.0688674499143</v>
+        <v>415.2482828074615</v>
       </c>
       <c r="L27" t="n">
-        <v>965.0331506325768</v>
+        <v>944.6469799529972</v>
       </c>
       <c r="M27" t="n">
-        <v>1320.430754881249</v>
+        <v>1300.044584201669</v>
       </c>
       <c r="N27" t="n">
-        <v>1699.643321111553</v>
+        <v>1679.257150431974</v>
       </c>
       <c r="O27" t="n">
-        <v>2024.32893882531</v>
+        <v>2003.942768145731</v>
       </c>
       <c r="P27" t="n">
-        <v>2265.584705587019</v>
+        <v>2245.19853490744</v>
       </c>
       <c r="Q27" t="n">
         <v>2564.528944348363</v>
@@ -6332,16 +6332,16 @@
         <v>2564.528944348363</v>
       </c>
       <c r="S27" t="n">
-        <v>2428.218860870718</v>
+        <v>2428.218860870717</v>
       </c>
       <c r="T27" t="n">
-        <v>2234.084585692266</v>
+        <v>2234.084585692265</v>
       </c>
       <c r="U27" t="n">
         <v>2005.992398105413</v>
       </c>
       <c r="V27" t="n">
-        <v>1770.840289873671</v>
+        <v>1770.84028987367</v>
       </c>
       <c r="W27" t="n">
         <v>1516.602933145469</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>219.3035934466487</v>
+        <v>325.957167055544</v>
       </c>
       <c r="C28" t="n">
-        <v>219.3035934466487</v>
+        <v>325.957167055544</v>
       </c>
       <c r="D28" t="n">
-        <v>219.3035934466487</v>
+        <v>325.957167055544</v>
       </c>
       <c r="E28" t="n">
-        <v>219.3035934466487</v>
+        <v>325.957167055544</v>
       </c>
       <c r="F28" t="n">
-        <v>219.3035934466487</v>
+        <v>325.957167055544</v>
       </c>
       <c r="G28" t="n">
-        <v>51.29057888696727</v>
+        <v>157.9441524958626</v>
       </c>
       <c r="H28" t="n">
-        <v>51.29057888696727</v>
+        <v>157.9441524958626</v>
       </c>
       <c r="I28" t="n">
-        <v>51.29057888696727</v>
+        <v>51.29057888696726</v>
       </c>
       <c r="J28" t="n">
         <v>74.92003001304161</v>
@@ -6408,28 +6408,28 @@
         <v>1610.693118163192</v>
       </c>
       <c r="R28" t="n">
-        <v>1506.915933070317</v>
+        <v>1610.693118163192</v>
       </c>
       <c r="S28" t="n">
-        <v>1506.915933070317</v>
+        <v>1413.601678533241</v>
       </c>
       <c r="T28" t="n">
-        <v>1506.915933070317</v>
+        <v>1413.601678533241</v>
       </c>
       <c r="U28" t="n">
-        <v>1217.796147399539</v>
+        <v>1124.481892862462</v>
       </c>
       <c r="V28" t="n">
-        <v>963.1116591936519</v>
+        <v>869.7974046565754</v>
       </c>
       <c r="W28" t="n">
-        <v>673.6944891566914</v>
+        <v>774.7392970970915</v>
       </c>
       <c r="X28" t="n">
-        <v>445.704938258674</v>
+        <v>546.7497461990741</v>
       </c>
       <c r="Y28" t="n">
-        <v>224.9123591151439</v>
+        <v>325.957167055544</v>
       </c>
     </row>
     <row r="29">
@@ -6439,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1991.056890473958</v>
+        <v>2002.755550566972</v>
       </c>
       <c r="C29" t="n">
-        <v>1622.094373533546</v>
+        <v>1633.79303362656</v>
       </c>
       <c r="D29" t="n">
-        <v>1263.828674926796</v>
+        <v>1275.52733501981</v>
       </c>
       <c r="E29" t="n">
-        <v>878.0404223285514</v>
+        <v>889.7390824215654</v>
       </c>
       <c r="F29" t="n">
-        <v>467.0545175389437</v>
+        <v>771.7198244998012</v>
       </c>
       <c r="G29" t="n">
-        <v>51.29057888696726</v>
+        <v>355.9558858478247</v>
       </c>
       <c r="H29" t="n">
         <v>51.29057888696726</v>
@@ -6463,28 +6463,28 @@
         <v>51.29057888696726</v>
       </c>
       <c r="J29" t="n">
-        <v>189.753895820994</v>
+        <v>182.6484035402487</v>
       </c>
       <c r="K29" t="n">
-        <v>437.3637422189594</v>
+        <v>430.258249938214</v>
       </c>
       <c r="L29" t="n">
-        <v>781.4474136939259</v>
+        <v>774.3419214131804</v>
       </c>
       <c r="M29" t="n">
-        <v>1195.97623347967</v>
+        <v>1188.870741198924</v>
       </c>
       <c r="N29" t="n">
-        <v>1621.826371324918</v>
+        <v>1686.885626999171</v>
       </c>
       <c r="O29" t="n">
-        <v>2010.609319556535</v>
+        <v>2075.668575230788</v>
       </c>
       <c r="P29" t="n">
-        <v>2307.92557020186</v>
+        <v>2372.984825876113</v>
       </c>
       <c r="Q29" t="n">
-        <v>2483.024945800757</v>
+        <v>2548.08420147501</v>
       </c>
       <c r="R29" t="n">
         <v>2564.528944348363</v>
@@ -6493,22 +6493,22 @@
         <v>2564.528944348363</v>
       </c>
       <c r="T29" t="n">
-        <v>2564.528944348363</v>
+        <v>2355.524205837086</v>
       </c>
       <c r="U29" t="n">
-        <v>2564.528944348363</v>
+        <v>2355.524205837086</v>
       </c>
       <c r="V29" t="n">
-        <v>2564.528944348363</v>
+        <v>2355.524205837086</v>
       </c>
       <c r="W29" t="n">
-        <v>2564.528944348363</v>
+        <v>2002.755550566972</v>
       </c>
       <c r="X29" t="n">
-        <v>2564.528944348363</v>
+        <v>2002.755550566972</v>
       </c>
       <c r="Y29" t="n">
-        <v>2174.389612372551</v>
+        <v>2002.755550566972</v>
       </c>
     </row>
     <row r="30">
@@ -6518,49 +6518,49 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>932.775797154914</v>
+        <v>932.7757971549141</v>
       </c>
       <c r="C30" t="n">
-        <v>758.322767873787</v>
+        <v>758.3227678737871</v>
       </c>
       <c r="D30" t="n">
-        <v>609.3883582125356</v>
+        <v>609.3883582125359</v>
       </c>
       <c r="E30" t="n">
-        <v>450.1509032070801</v>
+        <v>450.1509032070804</v>
       </c>
       <c r="F30" t="n">
-        <v>303.6163452339651</v>
+        <v>303.6163452339654</v>
       </c>
       <c r="G30" t="n">
-        <v>166.8832661033211</v>
+        <v>166.883266103321</v>
       </c>
       <c r="H30" t="n">
-        <v>72.80815385915366</v>
+        <v>72.80815385915346</v>
       </c>
       <c r="I30" t="n">
         <v>51.29057888696726</v>
       </c>
       <c r="J30" t="n">
-        <v>110.7085524022813</v>
+        <v>235.5386773892861</v>
       </c>
       <c r="K30" t="n">
-        <v>290.4181578204567</v>
+        <v>656.6826967703346</v>
       </c>
       <c r="L30" t="n">
-        <v>925.1390715466765</v>
+        <v>944.6469799529972</v>
       </c>
       <c r="M30" t="n">
-        <v>1280.536675795348</v>
+        <v>1300.044584201669</v>
       </c>
       <c r="N30" t="n">
-        <v>1659.749242025653</v>
+        <v>1679.257150431974</v>
       </c>
       <c r="O30" t="n">
-        <v>2211.919283004221</v>
+        <v>2003.942768145731</v>
       </c>
       <c r="P30" t="n">
-        <v>2453.17504976593</v>
+        <v>2245.19853490744</v>
       </c>
       <c r="Q30" t="n">
         <v>2564.528944348363</v>
@@ -6597,19 +6597,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>200.2655294858693</v>
+        <v>832.0177680537611</v>
       </c>
       <c r="C31" t="n">
-        <v>200.2655294858693</v>
+        <v>663.0815851258542</v>
       </c>
       <c r="D31" t="n">
-        <v>200.2655294858693</v>
+        <v>663.0815851258542</v>
       </c>
       <c r="E31" t="n">
-        <v>200.2655294858693</v>
+        <v>515.1684915434611</v>
       </c>
       <c r="F31" t="n">
-        <v>200.2655294858693</v>
+        <v>368.2785440455507</v>
       </c>
       <c r="G31" t="n">
         <v>200.2655294858693</v>
@@ -6648,25 +6648,25 @@
         <v>1610.693118163192</v>
       </c>
       <c r="S31" t="n">
-        <v>1413.601678533241</v>
+        <v>1610.693118163192</v>
       </c>
       <c r="T31" t="n">
-        <v>1190.509757383056</v>
+        <v>1610.693118163192</v>
       </c>
       <c r="U31" t="n">
-        <v>901.3899717122778</v>
+        <v>1610.693118163192</v>
       </c>
       <c r="V31" t="n">
-        <v>646.7054835063909</v>
+        <v>1356.008629957305</v>
       </c>
       <c r="W31" t="n">
-        <v>357.2883134694303</v>
+        <v>1280.799898095308</v>
       </c>
       <c r="X31" t="n">
-        <v>200.2655294858693</v>
+        <v>1052.810347197291</v>
       </c>
       <c r="Y31" t="n">
-        <v>200.2655294858693</v>
+        <v>832.0177680537611</v>
       </c>
     </row>
     <row r="32">
@@ -6676,13 +6676,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>878.0404223285514</v>
+        <v>1632.791191867207</v>
       </c>
       <c r="C32" t="n">
-        <v>878.0404223285514</v>
+        <v>1263.828674926796</v>
       </c>
       <c r="D32" t="n">
-        <v>878.0404223285514</v>
+        <v>1263.828674926796</v>
       </c>
       <c r="E32" t="n">
         <v>878.0404223285514</v>
@@ -6691,13 +6691,13 @@
         <v>467.0545175389437</v>
       </c>
       <c r="G32" t="n">
-        <v>51.29057888696727</v>
+        <v>51.29057888696726</v>
       </c>
       <c r="H32" t="n">
-        <v>51.29057888696727</v>
+        <v>51.29057888696726</v>
       </c>
       <c r="I32" t="n">
-        <v>51.29057888696727</v>
+        <v>51.29057888696726</v>
       </c>
       <c r="J32" t="n">
         <v>182.6484035402487</v>
@@ -6721,31 +6721,31 @@
         <v>2300.820077921115</v>
       </c>
       <c r="Q32" t="n">
-        <v>2548.084201475011</v>
+        <v>2548.08420147501</v>
       </c>
       <c r="R32" t="n">
         <v>2564.528944348363</v>
       </c>
       <c r="S32" t="n">
-        <v>2438.480981750687</v>
+        <v>2564.528944348363</v>
       </c>
       <c r="T32" t="n">
-        <v>2438.480981750687</v>
+        <v>2564.528944348363</v>
       </c>
       <c r="U32" t="n">
-        <v>2184.895185944765</v>
+        <v>2564.528944348363</v>
       </c>
       <c r="V32" t="n">
-        <v>1853.832298601194</v>
+        <v>2564.528944348363</v>
       </c>
       <c r="W32" t="n">
-        <v>1853.832298601194</v>
+        <v>2564.528944348363</v>
       </c>
       <c r="X32" t="n">
-        <v>1480.366540340115</v>
+        <v>2409.530363907141</v>
       </c>
       <c r="Y32" t="n">
-        <v>1090.227208364303</v>
+        <v>2019.391031931329</v>
       </c>
     </row>
     <row r="33">
@@ -6761,43 +6761,43 @@
         <v>758.322767873787</v>
       </c>
       <c r="D33" t="n">
-        <v>609.3883582125359</v>
+        <v>609.3883582125356</v>
       </c>
       <c r="E33" t="n">
-        <v>450.1509032070803</v>
+        <v>450.1509032070801</v>
       </c>
       <c r="F33" t="n">
-        <v>303.6163452339654</v>
+        <v>303.6163452339651</v>
       </c>
       <c r="G33" t="n">
-        <v>166.883266103321</v>
+        <v>166.8832661033211</v>
       </c>
       <c r="H33" t="n">
-        <v>72.80815385915349</v>
+        <v>72.80815385915366</v>
       </c>
       <c r="I33" t="n">
-        <v>51.29057888696727</v>
+        <v>51.29057888696726</v>
       </c>
       <c r="J33" t="n">
         <v>235.5386773892861</v>
       </c>
       <c r="K33" t="n">
-        <v>517.9025810852685</v>
+        <v>656.6826967703346</v>
       </c>
       <c r="L33" t="n">
-        <v>1152.623494811488</v>
+        <v>944.6469799529972</v>
       </c>
       <c r="M33" t="n">
-        <v>1508.02109906016</v>
+        <v>1300.044584201669</v>
       </c>
       <c r="N33" t="n">
-        <v>1887.233665290465</v>
+        <v>1679.257150431974</v>
       </c>
       <c r="O33" t="n">
-        <v>2211.919283004222</v>
+        <v>2003.942768145731</v>
       </c>
       <c r="P33" t="n">
-        <v>2453.175049765931</v>
+        <v>2245.19853490744</v>
       </c>
       <c r="Q33" t="n">
         <v>2564.528944348363</v>
@@ -6815,7 +6815,7 @@
         <v>2005.992398105413</v>
       </c>
       <c r="V33" t="n">
-        <v>1770.840289873671</v>
+        <v>1770.84028987367</v>
       </c>
       <c r="W33" t="n">
         <v>1516.602933145469</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>436.4582494147394</v>
+        <v>51.29057888696726</v>
       </c>
       <c r="C34" t="n">
-        <v>436.4582494147394</v>
+        <v>51.29057888696726</v>
       </c>
       <c r="D34" t="n">
-        <v>368.2785440455507</v>
+        <v>51.29057888696726</v>
       </c>
       <c r="E34" t="n">
-        <v>368.2785440455507</v>
+        <v>51.29057888696726</v>
       </c>
       <c r="F34" t="n">
-        <v>368.2785440455507</v>
+        <v>51.29057888696726</v>
       </c>
       <c r="G34" t="n">
-        <v>200.2655294858693</v>
+        <v>51.29057888696726</v>
       </c>
       <c r="H34" t="n">
-        <v>51.29057888696727</v>
+        <v>51.29057888696726</v>
       </c>
       <c r="I34" t="n">
-        <v>51.29057888696727</v>
+        <v>51.29057888696726</v>
       </c>
       <c r="J34" t="n">
         <v>74.92003001304161</v>
@@ -6885,25 +6885,25 @@
         <v>1610.693118163192</v>
       </c>
       <c r="S34" t="n">
-        <v>1610.693118163192</v>
+        <v>1413.601678533241</v>
       </c>
       <c r="T34" t="n">
-        <v>1610.693118163192</v>
+        <v>1190.509757383056</v>
       </c>
       <c r="U34" t="n">
-        <v>1321.573332492414</v>
+        <v>901.3899717122778</v>
       </c>
       <c r="V34" t="n">
-        <v>1066.888844286527</v>
+        <v>646.7054835063909</v>
       </c>
       <c r="W34" t="n">
-        <v>1066.888844286527</v>
+        <v>453.731622860737</v>
       </c>
       <c r="X34" t="n">
-        <v>838.8992933885092</v>
+        <v>453.731622860737</v>
       </c>
       <c r="Y34" t="n">
-        <v>618.1067142449791</v>
+        <v>232.939043717207</v>
       </c>
     </row>
     <row r="35">
@@ -6913,19 +6913,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1262.35592496853</v>
+        <v>1162.834297074108</v>
       </c>
       <c r="C35" t="n">
-        <v>1262.35592496853</v>
+        <v>793.8717801336968</v>
       </c>
       <c r="D35" t="n">
-        <v>1262.35592496853</v>
+        <v>435.6060815269462</v>
       </c>
       <c r="E35" t="n">
-        <v>876.5676723702861</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="F35" t="n">
-        <v>465.5817675806785</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="G35" t="n">
         <v>49.81782892870199</v>
@@ -6937,13 +6937,13 @@
         <v>49.81782892870199</v>
       </c>
       <c r="J35" t="n">
-        <v>181.1756535819833</v>
+        <v>181.1756535819834</v>
       </c>
       <c r="K35" t="n">
-        <v>428.7854999799487</v>
+        <v>428.7854999799488</v>
       </c>
       <c r="L35" t="n">
-        <v>772.8691714549154</v>
+        <v>772.8691714549152</v>
       </c>
       <c r="M35" t="n">
         <v>1187.397991240659</v>
@@ -6955,7 +6955,7 @@
         <v>2002.031077317524</v>
       </c>
       <c r="P35" t="n">
-        <v>2299.34732796285</v>
+        <v>2299.347327962849</v>
       </c>
       <c r="Q35" t="n">
         <v>2474.446703561747</v>
@@ -6964,25 +6964,25 @@
         <v>2490.8914464351</v>
       </c>
       <c r="S35" t="n">
-        <v>2412.560855269544</v>
+        <v>2364.843483837423</v>
       </c>
       <c r="T35" t="n">
-        <v>2412.560855269544</v>
+        <v>2364.843483837423</v>
       </c>
       <c r="U35" t="n">
-        <v>2412.560855269544</v>
+        <v>2364.843483837423</v>
       </c>
       <c r="V35" t="n">
-        <v>2412.560855269544</v>
+        <v>2364.843483837423</v>
       </c>
       <c r="W35" t="n">
-        <v>2412.560855269544</v>
+        <v>2313.039227375122</v>
       </c>
       <c r="X35" t="n">
-        <v>2039.095097008464</v>
+        <v>1939.573469114042</v>
       </c>
       <c r="Y35" t="n">
-        <v>1648.955765032652</v>
+        <v>1549.43413713823</v>
       </c>
     </row>
     <row r="36">
@@ -6992,37 +6992,37 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>859.1382992416507</v>
+        <v>931.3030471966489</v>
       </c>
       <c r="C36" t="n">
-        <v>684.6852699605237</v>
+        <v>756.8500179155219</v>
       </c>
       <c r="D36" t="n">
-        <v>535.7508602992724</v>
+        <v>607.9156082542706</v>
       </c>
       <c r="E36" t="n">
-        <v>376.5134052938169</v>
+        <v>448.6781532488152</v>
       </c>
       <c r="F36" t="n">
-        <v>229.9788473207019</v>
+        <v>302.1435952757001</v>
       </c>
       <c r="G36" t="n">
-        <v>93.2457681900575</v>
+        <v>165.4105161450557</v>
       </c>
       <c r="H36" t="n">
-        <v>49.81782892870199</v>
+        <v>71.33540390088822</v>
       </c>
       <c r="I36" t="n">
         <v>49.81782892870199</v>
       </c>
       <c r="J36" t="n">
-        <v>141.515008796443</v>
+        <v>234.0659274310208</v>
       </c>
       <c r="K36" t="n">
-        <v>583.0451988570712</v>
+        <v>583.0451988570713</v>
       </c>
       <c r="L36" t="n">
-        <v>871.0094820397338</v>
+        <v>871.0094820397339</v>
       </c>
       <c r="M36" t="n">
         <v>1226.407086288405</v>
@@ -7046,22 +7046,22 @@
         <v>2354.581362957454</v>
       </c>
       <c r="T36" t="n">
-        <v>2160.447087779001</v>
+        <v>2232.611835734</v>
       </c>
       <c r="U36" t="n">
-        <v>1932.35490019215</v>
+        <v>2004.519648147148</v>
       </c>
       <c r="V36" t="n">
-        <v>1697.202791960407</v>
+        <v>1769.367539915405</v>
       </c>
       <c r="W36" t="n">
-        <v>1442.965435232205</v>
+        <v>1515.130183187204</v>
       </c>
       <c r="X36" t="n">
-        <v>1235.113935026673</v>
+        <v>1307.278682981671</v>
       </c>
       <c r="Y36" t="n">
-        <v>1027.353636261719</v>
+        <v>1099.518384216717</v>
       </c>
     </row>
     <row r="37">
@@ -7071,34 +7071,34 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>217.8308434883834</v>
+        <v>791.4503330199144</v>
       </c>
       <c r="C37" t="n">
-        <v>217.8308434883834</v>
+        <v>622.5141500920075</v>
       </c>
       <c r="D37" t="n">
-        <v>217.8308434883834</v>
+        <v>472.3975106796718</v>
       </c>
       <c r="E37" t="n">
-        <v>217.8308434883834</v>
+        <v>324.4844170972787</v>
       </c>
       <c r="F37" t="n">
-        <v>217.8308434883834</v>
+        <v>324.4844170972787</v>
       </c>
       <c r="G37" t="n">
-        <v>49.81782892870199</v>
+        <v>156.4714025375973</v>
       </c>
       <c r="H37" t="n">
-        <v>49.81782892870199</v>
+        <v>156.4714025375973</v>
       </c>
       <c r="I37" t="n">
         <v>49.81782892870199</v>
       </c>
       <c r="J37" t="n">
-        <v>73.44728005477634</v>
+        <v>73.44728005477633</v>
       </c>
       <c r="K37" t="n">
-        <v>242.1145636490679</v>
+        <v>242.1145636490678</v>
       </c>
       <c r="L37" t="n">
         <v>513.4770511394356</v>
@@ -7119,28 +7119,28 @@
         <v>1609.220368204927</v>
       </c>
       <c r="R37" t="n">
-        <v>1609.220368204927</v>
+        <v>1505.443183112052</v>
       </c>
       <c r="S37" t="n">
-        <v>1455.792673382433</v>
+        <v>1308.351743482101</v>
       </c>
       <c r="T37" t="n">
-        <v>1232.700752232249</v>
+        <v>1085.259822331916</v>
       </c>
       <c r="U37" t="n">
-        <v>943.5809665614705</v>
+        <v>796.1400366611377</v>
       </c>
       <c r="V37" t="n">
-        <v>688.8964783555837</v>
+        <v>791.4503330199144</v>
       </c>
       <c r="W37" t="n">
-        <v>399.4793083186231</v>
+        <v>791.4503330199144</v>
       </c>
       <c r="X37" t="n">
-        <v>399.4793083186231</v>
+        <v>791.4503330199144</v>
       </c>
       <c r="Y37" t="n">
-        <v>399.4793083186231</v>
+        <v>791.4503330199144</v>
       </c>
     </row>
     <row r="38">
@@ -7150,37 +7150,37 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>851.3700201789227</v>
+        <v>1571.190062176654</v>
       </c>
       <c r="C38" t="n">
-        <v>851.3700201789227</v>
+        <v>1202.227545236242</v>
       </c>
       <c r="D38" t="n">
-        <v>851.3700201789227</v>
+        <v>843.9618466294914</v>
       </c>
       <c r="E38" t="n">
-        <v>465.5817675806785</v>
+        <v>458.1735940312472</v>
       </c>
       <c r="F38" t="n">
-        <v>465.5817675806785</v>
+        <v>458.1735940312472</v>
       </c>
       <c r="G38" t="n">
-        <v>49.81782892870201</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="H38" t="n">
-        <v>49.81782892870201</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="I38" t="n">
-        <v>49.81782892870201</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="J38" t="n">
-        <v>181.1756535819834</v>
+        <v>181.1756535819833</v>
       </c>
       <c r="K38" t="n">
-        <v>428.7854999799488</v>
+        <v>428.7854999799487</v>
       </c>
       <c r="L38" t="n">
-        <v>772.8691714549152</v>
+        <v>772.869171454915</v>
       </c>
       <c r="M38" t="n">
         <v>1187.397991240659</v>
@@ -7195,31 +7195,31 @@
         <v>2299.347327962849</v>
       </c>
       <c r="Q38" t="n">
-        <v>2474.446703561747</v>
+        <v>2474.446703561746</v>
       </c>
       <c r="R38" t="n">
-        <v>2490.891446435101</v>
+        <v>2490.8914464351</v>
       </c>
       <c r="S38" t="n">
-        <v>2364.843483837424</v>
+        <v>2364.843483837423</v>
       </c>
       <c r="T38" t="n">
-        <v>2298.806653029499</v>
+        <v>2155.838745326146</v>
       </c>
       <c r="U38" t="n">
-        <v>2298.806653029499</v>
+        <v>1902.252949520224</v>
       </c>
       <c r="V38" t="n">
-        <v>1967.743765685928</v>
+        <v>1571.190062176654</v>
       </c>
       <c r="W38" t="n">
-        <v>1614.975110415814</v>
+        <v>1571.190062176654</v>
       </c>
       <c r="X38" t="n">
-        <v>1241.509352154734</v>
+        <v>1571.190062176654</v>
       </c>
       <c r="Y38" t="n">
-        <v>851.3700201789227</v>
+        <v>1571.190062176654</v>
       </c>
     </row>
     <row r="39">
@@ -7229,7 +7229,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>931.3030471966489</v>
+        <v>859.1382992416507</v>
       </c>
       <c r="C39" t="n">
         <v>756.8500179155219</v>
@@ -7250,55 +7250,55 @@
         <v>71.33540390088822</v>
       </c>
       <c r="I39" t="n">
-        <v>49.81782892870201</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="J39" t="n">
         <v>234.0659274310208</v>
       </c>
       <c r="K39" t="n">
-        <v>553.73864695318</v>
+        <v>583.0451988570713</v>
       </c>
       <c r="L39" t="n">
-        <v>841.7029301358426</v>
+        <v>871.0094820397339</v>
       </c>
       <c r="M39" t="n">
-        <v>1197.100534384514</v>
+        <v>1226.407086288405</v>
       </c>
       <c r="N39" t="n">
-        <v>1813.596167377202</v>
+        <v>1605.61965251871</v>
       </c>
       <c r="O39" t="n">
-        <v>2138.281785090959</v>
+        <v>1930.305270232467</v>
       </c>
       <c r="P39" t="n">
-        <v>2379.537551852668</v>
+        <v>2171.561036994176</v>
       </c>
       <c r="Q39" t="n">
-        <v>2490.891446435101</v>
+        <v>2490.8914464351</v>
       </c>
       <c r="R39" t="n">
-        <v>2490.891446435101</v>
+        <v>2490.8914464351</v>
       </c>
       <c r="S39" t="n">
-        <v>2354.581362957455</v>
+        <v>2354.581362957454</v>
       </c>
       <c r="T39" t="n">
-        <v>2160.447087779002</v>
+        <v>2160.447087779001</v>
       </c>
       <c r="U39" t="n">
-        <v>1932.354900192151</v>
+        <v>1932.35490019215</v>
       </c>
       <c r="V39" t="n">
-        <v>1697.202791960408</v>
+        <v>1697.202791960407</v>
       </c>
       <c r="W39" t="n">
-        <v>1515.130183187204</v>
+        <v>1442.965435232205</v>
       </c>
       <c r="X39" t="n">
-        <v>1307.278682981671</v>
+        <v>1235.113935026673</v>
       </c>
       <c r="Y39" t="n">
-        <v>1099.518384216717</v>
+        <v>1027.353636261719</v>
       </c>
     </row>
     <row r="40">
@@ -7308,34 +7308,34 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>305.4463531364993</v>
+        <v>833.7717100099212</v>
       </c>
       <c r="C40" t="n">
-        <v>305.4463531364993</v>
+        <v>664.8355270820143</v>
       </c>
       <c r="D40" t="n">
-        <v>305.4463531364993</v>
+        <v>514.7188876696786</v>
       </c>
       <c r="E40" t="n">
-        <v>305.4463531364993</v>
+        <v>366.8057940872854</v>
       </c>
       <c r="F40" t="n">
-        <v>305.4463531364993</v>
+        <v>366.8057940872854</v>
       </c>
       <c r="G40" t="n">
-        <v>305.4463531364993</v>
+        <v>198.792779527604</v>
       </c>
       <c r="H40" t="n">
-        <v>156.4714025375973</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="I40" t="n">
-        <v>49.81782892870201</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="J40" t="n">
-        <v>73.44728005477636</v>
+        <v>73.44728005477633</v>
       </c>
       <c r="K40" t="n">
-        <v>242.1145636490679</v>
+        <v>242.1145636490678</v>
       </c>
       <c r="L40" t="n">
         <v>513.4770511394356</v>
@@ -7359,25 +7359,25 @@
         <v>1609.220368204927</v>
       </c>
       <c r="S40" t="n">
-        <v>1589.749269098327</v>
+        <v>1412.128928574975</v>
       </c>
       <c r="T40" t="n">
-        <v>1366.657347948143</v>
+        <v>1243.409725738178</v>
       </c>
       <c r="U40" t="n">
-        <v>1077.537562277364</v>
+        <v>1243.409725738178</v>
       </c>
       <c r="V40" t="n">
-        <v>822.8530740714773</v>
+        <v>1243.409725738178</v>
       </c>
       <c r="W40" t="n">
-        <v>533.4359040345166</v>
+        <v>1243.409725738178</v>
       </c>
       <c r="X40" t="n">
-        <v>305.4463531364993</v>
+        <v>1015.420174840161</v>
       </c>
       <c r="Y40" t="n">
-        <v>305.4463531364993</v>
+        <v>1015.420174840161</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1925.286930536138</v>
+        <v>1215.554503256966</v>
       </c>
       <c r="C41" t="n">
-        <v>1925.286930536138</v>
+        <v>846.5919863165539</v>
       </c>
       <c r="D41" t="n">
-        <v>1567.021231929388</v>
+        <v>846.5919863165539</v>
       </c>
       <c r="E41" t="n">
-        <v>1181.232979331143</v>
+        <v>460.8037337183096</v>
       </c>
       <c r="F41" t="n">
-        <v>770.247074541536</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="G41" t="n">
-        <v>354.4831358895594</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="H41" t="n">
-        <v>49.81782892870201</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="I41" t="n">
-        <v>49.81782892870201</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="J41" t="n">
-        <v>181.1756535819845</v>
+        <v>181.1756535819833</v>
       </c>
       <c r="K41" t="n">
-        <v>428.7854999799501</v>
+        <v>428.7854999799487</v>
       </c>
       <c r="L41" t="n">
-        <v>772.8691714549166</v>
+        <v>772.869171454915</v>
       </c>
       <c r="M41" t="n">
-        <v>1187.39799124066</v>
+        <v>1187.397991240659</v>
       </c>
       <c r="N41" t="n">
-        <v>1613.248129085909</v>
+        <v>1613.248129085907</v>
       </c>
       <c r="O41" t="n">
-        <v>2002.031077317525</v>
+        <v>2002.031077317524</v>
       </c>
       <c r="P41" t="n">
-        <v>2299.347327962851</v>
+        <v>2299.347327962849</v>
       </c>
       <c r="Q41" t="n">
-        <v>2474.446703561748</v>
+        <v>2474.446703561746</v>
       </c>
       <c r="R41" t="n">
-        <v>2490.891446435101</v>
+        <v>2490.8914464351</v>
       </c>
       <c r="S41" t="n">
-        <v>2364.843483837424</v>
+        <v>2490.8914464351</v>
       </c>
       <c r="T41" t="n">
-        <v>2178.87272634206</v>
+        <v>2490.8914464351</v>
       </c>
       <c r="U41" t="n">
-        <v>1925.286930536138</v>
+        <v>2331.928248763971</v>
       </c>
       <c r="V41" t="n">
-        <v>1925.286930536138</v>
+        <v>2331.928248763971</v>
       </c>
       <c r="W41" t="n">
-        <v>1925.286930536138</v>
+        <v>1979.159593493857</v>
       </c>
       <c r="X41" t="n">
-        <v>1925.286930536138</v>
+        <v>1605.693835232777</v>
       </c>
       <c r="Y41" t="n">
-        <v>1925.286930536138</v>
+        <v>1215.554503256966</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>859.1382992416516</v>
+        <v>859.1382992416507</v>
       </c>
       <c r="C42" t="n">
-        <v>684.6852699605246</v>
+        <v>684.6852699605237</v>
       </c>
       <c r="D42" t="n">
-        <v>535.7508602992733</v>
+        <v>535.7508602992724</v>
       </c>
       <c r="E42" t="n">
-        <v>376.5134052938178</v>
+        <v>376.5134052938169</v>
       </c>
       <c r="F42" t="n">
-        <v>229.9788473207028</v>
+        <v>229.9788473207019</v>
       </c>
       <c r="G42" t="n">
-        <v>165.4105161450557</v>
+        <v>143.8929411728695</v>
       </c>
       <c r="H42" t="n">
-        <v>71.33540390088822</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="I42" t="n">
-        <v>49.81782892870201</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="J42" t="n">
-        <v>109.2358024440161</v>
+        <v>234.0659274310208</v>
       </c>
       <c r="K42" t="n">
-        <v>288.9454078621915</v>
+        <v>413.7755328491962</v>
       </c>
       <c r="L42" t="n">
-        <v>741.2969077381084</v>
+        <v>701.7398160318587</v>
       </c>
       <c r="M42" t="n">
-        <v>1096.69451198678</v>
+        <v>1057.13742028053</v>
       </c>
       <c r="N42" t="n">
-        <v>1475.907078217085</v>
+        <v>1436.349986510835</v>
       </c>
       <c r="O42" t="n">
-        <v>1800.592695930842</v>
+        <v>1761.035604224592</v>
       </c>
       <c r="P42" t="n">
-        <v>2357.126603646089</v>
+        <v>2149.150088787597</v>
       </c>
       <c r="Q42" t="n">
-        <v>2468.480498228521</v>
+        <v>2468.48049822852</v>
       </c>
       <c r="R42" t="n">
-        <v>2490.891446435101</v>
+        <v>2490.8914464351</v>
       </c>
       <c r="S42" t="n">
-        <v>2354.581362957455</v>
+        <v>2354.581362957454</v>
       </c>
       <c r="T42" t="n">
-        <v>2160.447087779002</v>
+        <v>2160.447087779001</v>
       </c>
       <c r="U42" t="n">
-        <v>1932.354900192151</v>
+        <v>1932.35490019215</v>
       </c>
       <c r="V42" t="n">
-        <v>1697.202791960408</v>
+        <v>1697.202791960407</v>
       </c>
       <c r="W42" t="n">
-        <v>1442.965435232206</v>
+        <v>1442.965435232205</v>
       </c>
       <c r="X42" t="n">
-        <v>1235.113935026674</v>
+        <v>1235.113935026673</v>
       </c>
       <c r="Y42" t="n">
-        <v>1027.35363626172</v>
+        <v>1027.353636261719</v>
       </c>
     </row>
     <row r="43">
@@ -7545,34 +7545,34 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>49.81782892870201</v>
+        <v>686.378805501888</v>
       </c>
       <c r="C43" t="n">
-        <v>49.81782892870201</v>
+        <v>517.4426225739811</v>
       </c>
       <c r="D43" t="n">
-        <v>49.81782892870201</v>
+        <v>367.3259831616454</v>
       </c>
       <c r="E43" t="n">
-        <v>49.81782892870201</v>
+        <v>219.4128895792522</v>
       </c>
       <c r="F43" t="n">
-        <v>49.81782892870201</v>
+        <v>219.4128895792522</v>
       </c>
       <c r="G43" t="n">
-        <v>49.81782892870201</v>
+        <v>198.792779527604</v>
       </c>
       <c r="H43" t="n">
-        <v>49.81782892870201</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="I43" t="n">
-        <v>49.81782892870201</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="J43" t="n">
-        <v>73.44728005477636</v>
+        <v>73.44728005477633</v>
       </c>
       <c r="K43" t="n">
-        <v>242.1145636490679</v>
+        <v>242.1145636490678</v>
       </c>
       <c r="L43" t="n">
         <v>513.4770511394356</v>
@@ -7599,22 +7599,22 @@
         <v>1412.128928574975</v>
       </c>
       <c r="T43" t="n">
-        <v>1189.037007424791</v>
+        <v>1412.128928574975</v>
       </c>
       <c r="U43" t="n">
-        <v>899.9172217540125</v>
+        <v>1412.128928574975</v>
       </c>
       <c r="V43" t="n">
-        <v>645.2327335481257</v>
+        <v>1157.444440369088</v>
       </c>
       <c r="W43" t="n">
-        <v>355.8155635111651</v>
+        <v>868.0272703321277</v>
       </c>
       <c r="X43" t="n">
-        <v>127.8260126131477</v>
+        <v>868.0272703321277</v>
       </c>
       <c r="Y43" t="n">
-        <v>49.81782892870201</v>
+        <v>868.0272703321277</v>
       </c>
     </row>
     <row r="44">
@@ -7624,19 +7624,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1601.238393600531</v>
+        <v>1573.820201863716</v>
       </c>
       <c r="C44" t="n">
-        <v>1232.275876660119</v>
+        <v>1204.857684923304</v>
       </c>
       <c r="D44" t="n">
-        <v>874.0101780533687</v>
+        <v>846.5919863165539</v>
       </c>
       <c r="E44" t="n">
-        <v>488.2219254551244</v>
+        <v>460.8037337183096</v>
       </c>
       <c r="F44" t="n">
-        <v>77.23602066551689</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="G44" t="n">
         <v>49.81782892870199</v>
@@ -7648,19 +7648,19 @@
         <v>49.81782892870199</v>
       </c>
       <c r="J44" t="n">
-        <v>181.1756535819834</v>
+        <v>181.175653581984</v>
       </c>
       <c r="K44" t="n">
-        <v>428.7854999799487</v>
+        <v>428.7854999799493</v>
       </c>
       <c r="L44" t="n">
-        <v>772.8691714549145</v>
+        <v>772.8691714549157</v>
       </c>
       <c r="M44" t="n">
-        <v>1187.397991240658</v>
+        <v>1187.397991240659</v>
       </c>
       <c r="N44" t="n">
-        <v>1613.248129085906</v>
+        <v>1613.248129085908</v>
       </c>
       <c r="O44" t="n">
         <v>2002.031077317524</v>
@@ -7669,31 +7669,31 @@
         <v>2299.347327962849</v>
       </c>
       <c r="Q44" t="n">
-        <v>2474.446703561746</v>
+        <v>2474.446703561747</v>
       </c>
       <c r="R44" t="n">
-        <v>2490.891446435099</v>
+        <v>2490.8914464351</v>
       </c>
       <c r="S44" t="n">
-        <v>2364.843483837422</v>
+        <v>2364.843483837423</v>
       </c>
       <c r="T44" t="n">
-        <v>2364.843483837422</v>
+        <v>2364.843483837423</v>
       </c>
       <c r="U44" t="n">
-        <v>2364.843483837422</v>
+        <v>2364.843483837423</v>
       </c>
       <c r="V44" t="n">
-        <v>2364.843483837422</v>
+        <v>2364.843483837423</v>
       </c>
       <c r="W44" t="n">
-        <v>2364.843483837422</v>
+        <v>2364.843483837423</v>
       </c>
       <c r="X44" t="n">
         <v>1991.377725576343</v>
       </c>
       <c r="Y44" t="n">
-        <v>1601.238393600531</v>
+        <v>1960.420041927838</v>
       </c>
     </row>
     <row r="45">
@@ -7703,22 +7703,22 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>859.1382992416502</v>
+        <v>859.1382992416507</v>
       </c>
       <c r="C45" t="n">
-        <v>684.6852699605232</v>
+        <v>684.6852699605237</v>
       </c>
       <c r="D45" t="n">
-        <v>535.7508602992719</v>
+        <v>535.7508602992724</v>
       </c>
       <c r="E45" t="n">
-        <v>376.5134052938164</v>
+        <v>427.1605782766289</v>
       </c>
       <c r="F45" t="n">
-        <v>229.9788473207014</v>
+        <v>280.6260203035139</v>
       </c>
       <c r="G45" t="n">
-        <v>93.24576819005705</v>
+        <v>143.8929411728695</v>
       </c>
       <c r="H45" t="n">
         <v>49.81782892870199</v>
@@ -7727,31 +7727,31 @@
         <v>49.81782892870199</v>
       </c>
       <c r="J45" t="n">
-        <v>109.235802444016</v>
+        <v>234.0659274310208</v>
       </c>
       <c r="K45" t="n">
-        <v>550.7659925046443</v>
+        <v>413.7755328491962</v>
       </c>
       <c r="L45" t="n">
-        <v>838.7302756873069</v>
+        <v>701.7398160318587</v>
       </c>
       <c r="M45" t="n">
-        <v>1194.127879935978</v>
+        <v>1057.13742028053</v>
       </c>
       <c r="N45" t="n">
-        <v>1573.340446166283</v>
+        <v>1436.349986510835</v>
       </c>
       <c r="O45" t="n">
-        <v>1898.02606388004</v>
+        <v>1761.035604224592</v>
       </c>
       <c r="P45" t="n">
-        <v>2379.537551852667</v>
+        <v>2149.150088787597</v>
       </c>
       <c r="Q45" t="n">
-        <v>2490.891446435099</v>
+        <v>2468.48049822852</v>
       </c>
       <c r="R45" t="n">
-        <v>2490.891446435099</v>
+        <v>2490.8914464351</v>
       </c>
       <c r="S45" t="n">
         <v>2354.581362957454</v>
@@ -7760,7 +7760,7 @@
         <v>2160.447087779001</v>
       </c>
       <c r="U45" t="n">
-        <v>1932.354900192149</v>
+        <v>1932.35490019215</v>
       </c>
       <c r="V45" t="n">
         <v>1697.202791960407</v>
@@ -7769,10 +7769,10 @@
         <v>1442.965435232205</v>
       </c>
       <c r="X45" t="n">
-        <v>1235.113935026672</v>
+        <v>1235.113935026673</v>
       </c>
       <c r="Y45" t="n">
-        <v>1027.353636261718</v>
+        <v>1027.353636261719</v>
       </c>
     </row>
     <row r="46">
@@ -7782,7 +7782,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>49.81782892870199</v>
+        <v>161.7179216755045</v>
       </c>
       <c r="C46" t="n">
         <v>49.81782892870199</v>
@@ -7806,7 +7806,7 @@
         <v>49.81782892870199</v>
       </c>
       <c r="J46" t="n">
-        <v>73.44728005477631</v>
+        <v>73.44728005477633</v>
       </c>
       <c r="K46" t="n">
         <v>242.1145636490678</v>
@@ -7842,16 +7842,16 @@
         <v>899.9172217540125</v>
       </c>
       <c r="V46" t="n">
-        <v>645.2327335481257</v>
+        <v>899.9172217540125</v>
       </c>
       <c r="W46" t="n">
-        <v>355.8155635111651</v>
+        <v>610.500051717052</v>
       </c>
       <c r="X46" t="n">
-        <v>127.8260126131477</v>
+        <v>382.5105008190346</v>
       </c>
       <c r="Y46" t="n">
-        <v>49.81782892870199</v>
+        <v>161.7179216755045</v>
       </c>
     </row>
   </sheetData>
@@ -8768,10 +8768,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>32.60525894184541</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8786,13 +8786,13 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>274.433174533637</v>
       </c>
       <c r="Q12" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>22.88434839053379</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9005,10 +9005,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>32.60525894184509</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>148.3421391932291</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9029,7 +9029,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>22.88434839053382</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9242,10 +9242,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>148.3421391932291</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9260,13 +9260,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>242.6825466776939</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>22.88434839053379</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9424,7 +9424,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>1.037392394209746e-12</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9491,19 +9491,19 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>239.6798654165478</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>170.9794606140162</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>118.7395615125291</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>45.52166981132082</v>
+        <v>22.88434839053379</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9637,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>7.177264930045396</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -9658,7 +9658,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>7.177264930046164</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>65.71641987298243</v>
@@ -9716,10 +9716,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>135.487664512956</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9734,10 +9734,10 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>105.4989437448734</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>22.88434839053379</v>
@@ -9874,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>7.177264930046306</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -9883,7 +9883,7 @@
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>72.89368480302835</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
@@ -9898,7 +9898,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9956,10 +9956,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>243.8731454170436</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -9974,7 +9974,7 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>189.4851961403145</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>22.88434839053379</v>
@@ -10111,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>7.177264930045851</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -10123,7 +10123,7 @@
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>72.89368480302841</v>
       </c>
       <c r="O29" t="n">
         <v>0</v>
@@ -10135,7 +10135,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10190,13 +10190,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>243.8731454170436</v>
       </c>
       <c r="L30" t="n">
-        <v>350.2592227712699</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10205,13 +10205,13 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>229.7822457220313</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>22.88434839053379</v>
@@ -10369,7 +10369,7 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>72.89368480302866</v>
+        <v>72.89368480302818</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -10430,10 +10430,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>103.6912103816233</v>
+        <v>243.8731454170436</v>
       </c>
       <c r="L33" t="n">
-        <v>350.25922277127</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -10448,7 +10448,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>22.88434839053379</v>
@@ -10664,10 +10664,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>32.60525894184541</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>170.9794606140153</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10688,7 +10688,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>22.88434839053379</v>
+        <v>22.8843483905338</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10846,7 +10846,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>1.037392394209746e-12</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10904,7 +10904,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>141.376882933317</v>
+        <v>170.9794606140153</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10913,7 +10913,7 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>239.6798654165481</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -10922,10 +10922,10 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>22.88434839053379</v>
+        <v>22.8843483905338</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11138,13 +11138,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>166.0476936295498</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -11156,10 +11156,10 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>148.3421391932283</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11375,10 +11375,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11393,13 +11393,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>242.6825466776944</v>
+        <v>148.3421391932283</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>22.8843483905338</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23260,7 +23260,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>312.6671417805444</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -23269,16 +23269,16 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>108.2588661496792</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>411.6062992654567</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>67.96895394968163</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23311,19 +23311,19 @@
         <v>124.7874829717001</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>206.9146911261644</v>
       </c>
       <c r="U11" t="n">
-        <v>251.0499378478622</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -23351,7 +23351,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>50.14070125298386</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -23393,7 +23393,7 @@
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>50.14070125298394</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -23415,13 +23415,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>68.630000559305</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23433,10 +23433,10 @@
         <v>166.3328844140846</v>
       </c>
       <c r="H13" t="n">
-        <v>147.485201092913</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>105.5870378728063</v>
+        <v>44.5926185783417</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23494,28 +23494,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>411.6062992654567</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>301.6186538912489</v>
       </c>
       <c r="I14" t="n">
-        <v>67.96895394968166</v>
+        <v>67.96895394968163</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23545,10 +23545,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>124.7874829717001</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>206.9146911261644</v>
       </c>
       <c r="U14" t="n">
         <v>251.0499378478622</v>
@@ -23557,13 +23557,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>10.35086229573113</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>13.7473247717312</v>
       </c>
     </row>
     <row r="15">
@@ -23588,13 +23588,13 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>50.14070125298299</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>21.30239922246435</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23630,7 +23630,7 @@
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>71.44310047544911</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -23661,7 +23661,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23700,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>102.739413241946</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>195.1205252336517</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23712,13 +23712,13 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>186.6972101896052</v>
+        <v>123.9058508239332</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23731,28 +23731,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>66.19330473963845</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>301.6186538912489</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>67.96895394968163</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23782,25 +23782,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>124.7874829717001</v>
       </c>
       <c r="T17" t="n">
-        <v>206.9146911261644</v>
+        <v>200.4917083064796</v>
       </c>
       <c r="U17" t="n">
-        <v>251.0499378478622</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23825,13 +23825,13 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>50.14070125298477</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>21.30239922246435</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23861,7 +23861,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>71.44310047544725</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
@@ -23889,25 +23889,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.3328844140846</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>147.485201092913</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>105.5870378728063</v>
@@ -23940,25 +23940,25 @@
         <v>102.739413241946</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>195.1205252336517</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>220.8610019386828</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2285878140705</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>175.4951909947004</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>141.3565515044935</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -23980,10 +23980,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>322.9004304891837</v>
       </c>
       <c r="G20" t="n">
-        <v>385.2657610372283</v>
+        <v>411.6062992654567</v>
       </c>
       <c r="H20" t="n">
         <v>301.6186538912489</v>
@@ -24031,7 +24031,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -24065,7 +24065,7 @@
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>50.14070125298387</v>
+        <v>50.14070125298299</v>
       </c>
       <c r="I21" t="n">
         <v>21.30239922246435</v>
@@ -24129,7 +24129,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>56.46572927929336</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24177,7 +24177,7 @@
         <v>102.739413241946</v>
       </c>
       <c r="S22" t="n">
-        <v>141.3565515044935</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24186,7 +24186,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24205,19 +24205,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>222.2871226922917</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -24259,19 +24259,19 @@
         <v>124.7874829717001</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>206.9146911261644</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>251.0499378478622</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>164.0895019206306</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -24375,7 +24375,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>102.9940144327798</v>
       </c>
       <c r="G25" t="n">
         <v>166.3328844140846</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>102.739413241946</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24426,13 +24426,13 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>141.3565515044936</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24442,28 +24442,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>203.1362722191089</v>
       </c>
       <c r="H26" t="n">
-        <v>232.2067966798628</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>67.96895394968163</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24496,13 +24496,13 @@
         <v>124.7874829717001</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>206.9146911261644</v>
       </c>
       <c r="U26" t="n">
         <v>251.0499378478622</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -24511,7 +24511,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>174.279302170127</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -24621,7 +24621,7 @@
         <v>147.485201092913</v>
       </c>
       <c r="I28" t="n">
-        <v>105.5870378728063</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>102.739413241946</v>
       </c>
       <c r="S28" t="n">
-        <v>195.1205252336517</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>220.8610019386828</v>
@@ -24663,7 +24663,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>192.4154718527019</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24679,7 +24679,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>201.234446983873</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -24691,13 +24691,13 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>290.0369803991649</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>301.6186538912489</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>67.96895394968163</v>
@@ -24733,7 +24733,7 @@
         <v>124.7874829717001</v>
       </c>
       <c r="T29" t="n">
-        <v>206.9146911261644</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>251.0499378478622</v>
@@ -24742,13 +24742,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -24840,19 +24840,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.3328844140846</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -24888,25 +24888,25 @@
         <v>102.739413241946</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>195.1205252336517</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>220.8610019386828</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2285878140705</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>212.0663537932145</v>
       </c>
       <c r="X31" t="n">
-        <v>70.25709924531174</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -24916,16 +24916,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>172.6689234880866</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -24967,22 +24967,22 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>124.7874829717001</v>
       </c>
       <c r="T32" t="n">
         <v>206.9146911261644</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>251.0499378478622</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>216.2825060416591</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -25080,7 +25080,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>81.11756470271555</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25089,10 +25089,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.3328844140846</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>147.485201092913</v>
       </c>
       <c r="I34" t="n">
         <v>105.5870378728063</v>
@@ -25125,10 +25125,10 @@
         <v>102.739413241946</v>
       </c>
       <c r="S34" t="n">
-        <v>195.1205252336517</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>220.8610019386828</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25137,10 +25137,10 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>95.47887629739367</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25156,19 +25156,19 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>411.6062992654567</v>
       </c>
       <c r="H35" t="n">
         <v>301.6186538912489</v>
@@ -25204,7 +25204,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>47.24019771779999</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>206.9146911261644</v>
@@ -25216,7 +25216,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>297.9547548197349</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -25250,10 +25250,10 @@
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>50.14070125298387</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>21.30239922246435</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -25286,7 +25286,7 @@
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>71.44310047544816</v>
       </c>
       <c r="U36" t="n">
         <v>0</v>
@@ -25311,16 +25311,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -25332,7 +25332,7 @@
         <v>147.485201092913</v>
       </c>
       <c r="I37" t="n">
-        <v>105.5870378728063</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>102.739413241946</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>43.22710735938335</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25371,10 +25371,10 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>247.4948367190169</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -25393,10 +25393,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -25405,7 +25405,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>7.334091813936993</v>
       </c>
       <c r="H38" t="n">
         <v>301.6186538912489</v>
@@ -25444,22 +25444,22 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>141.5382286263191</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>251.0499378478622</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -25472,7 +25472,7 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>71.44310047544828</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
@@ -25532,7 +25532,7 @@
         <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>71.4431004754473</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
@@ -25548,28 +25548,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>166.3328844140846</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>105.5870378728063</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25599,19 +25599,19 @@
         <v>102.739413241946</v>
       </c>
       <c r="S40" t="n">
-        <v>175.8441371181183</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>53.8289911302536</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2285878140705</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25630,10 +25630,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -25642,10 +25642,10 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>411.6062992654567</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>301.6186538912489</v>
       </c>
       <c r="I41" t="n">
         <v>67.96895394968163</v>
@@ -25678,25 +25678,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>124.7874829717001</v>
       </c>
       <c r="T41" t="n">
-        <v>22.80364120575402</v>
+        <v>206.9146911261644</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>93.67637215344507</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25721,13 +25721,13 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>71.44310047544735</v>
+        <v>50.14070125298389</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>21.30239922246436</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25785,25 +25785,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>166.3328844140846</v>
+        <v>145.9189754629529</v>
       </c>
       <c r="H43" t="n">
-        <v>147.485201092913</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>105.5870378728063</v>
@@ -25839,10 +25839,10 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>220.8610019386828</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2285878140705</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25851,10 +25851,10 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>141.3565515044936</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -25864,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -25879,7 +25879,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>384.4622894460099</v>
+        <v>411.6062992654567</v>
       </c>
       <c r="H44" t="n">
         <v>301.6186538912489</v>
@@ -25933,7 +25933,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>355.5898318440334</v>
       </c>
     </row>
     <row r="45">
@@ -25952,7 +25952,7 @@
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>50.14070125298392</v>
       </c>
       <c r="F45" t="n">
         <v>0</v>
@@ -25961,7 +25961,7 @@
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>50.14070125298432</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>21.30239922246436</v>
@@ -26025,7 +26025,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>56.46572927929334</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26082,7 +26082,7 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>141.3565515044935</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>621276.9235508685</v>
+        <v>621276.9235508688</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>621276.9235508685</v>
+        <v>621276.9235508689</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>621276.9235508686</v>
+        <v>621276.9235508688</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>621276.9235508689</v>
+        <v>621276.923550869</v>
       </c>
     </row>
     <row r="9">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>633550.1936272612</v>
+        <v>633550.1936272611</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>633550.1936272613</v>
+        <v>633550.1936272611</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>621276.9235508685</v>
+        <v>621276.9235508686</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>621276.923550869</v>
+        <v>621276.9235508688</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>621276.923550869</v>
+        <v>621276.9235508686</v>
       </c>
     </row>
     <row r="16">
@@ -26316,28 +26316,28 @@
         <v>614457.2540377787</v>
       </c>
       <c r="C2" t="n">
-        <v>614457.2540377787</v>
+        <v>614457.2540377788</v>
       </c>
       <c r="D2" t="n">
-        <v>614457.2540377787</v>
+        <v>614457.2540377786</v>
       </c>
       <c r="E2" t="n">
-        <v>451767.5568592057</v>
+        <v>451767.5568592055</v>
       </c>
       <c r="F2" t="n">
         <v>451767.5568592057</v>
       </c>
       <c r="G2" t="n">
-        <v>451767.5568592054</v>
+        <v>451767.5568592058</v>
       </c>
       <c r="H2" t="n">
         <v>451767.5568592055</v>
       </c>
       <c r="I2" t="n">
-        <v>458304.6005527091</v>
+        <v>458304.600552709</v>
       </c>
       <c r="J2" t="n">
-        <v>458304.6005527092</v>
+        <v>458304.6005527093</v>
       </c>
       <c r="K2" t="n">
         <v>458304.6005527091</v>
@@ -26352,10 +26352,10 @@
         <v>451767.5568592055</v>
       </c>
       <c r="O2" t="n">
-        <v>451767.5568592057</v>
+        <v>451767.5568592054</v>
       </c>
       <c r="P2" t="n">
-        <v>451767.5568592055</v>
+        <v>451767.5568592056</v>
       </c>
     </row>
     <row r="3">
@@ -26386,7 +26386,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>4895.439270648257</v>
+        <v>4895.439270648136</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26429,34 +26429,34 @@
         <v>19428.11537840985</v>
       </c>
       <c r="F4" t="n">
-        <v>19428.11537840984</v>
+        <v>19428.11537840986</v>
       </c>
       <c r="G4" t="n">
-        <v>19428.11537840984</v>
+        <v>19428.11537840986</v>
       </c>
       <c r="H4" t="n">
-        <v>19428.11537840984</v>
+        <v>19428.1153784099</v>
       </c>
       <c r="I4" t="n">
-        <v>22998.6667411166</v>
+        <v>22998.66674111657</v>
       </c>
       <c r="J4" t="n">
-        <v>22998.66674111661</v>
+        <v>22998.66674111658</v>
       </c>
       <c r="K4" t="n">
+        <v>22998.66674111659</v>
+      </c>
+      <c r="L4" t="n">
         <v>22998.66674111658</v>
-      </c>
-      <c r="L4" t="n">
-        <v>22998.66674111661</v>
       </c>
       <c r="M4" t="n">
         <v>19428.11537840985</v>
       </c>
       <c r="N4" t="n">
-        <v>19428.11537840989</v>
+        <v>19428.11537840985</v>
       </c>
       <c r="O4" t="n">
-        <v>19428.11537840986</v>
+        <v>19428.11537840985</v>
       </c>
       <c r="P4" t="n">
         <v>19428.11537840985</v>
@@ -26481,16 +26481,16 @@
         <v>57906.41050425674</v>
       </c>
       <c r="F5" t="n">
-        <v>57906.41050425672</v>
+        <v>57906.41050425675</v>
       </c>
       <c r="G5" t="n">
-        <v>57906.41050425672</v>
+        <v>57906.41050425675</v>
       </c>
       <c r="H5" t="n">
-        <v>57906.41050425674</v>
+        <v>57906.41050425675</v>
       </c>
       <c r="I5" t="n">
-        <v>59025.70047253834</v>
+        <v>59025.70047253833</v>
       </c>
       <c r="J5" t="n">
         <v>59025.70047253834</v>
@@ -26505,13 +26505,13 @@
         <v>57906.41050425674</v>
       </c>
       <c r="N5" t="n">
-        <v>57906.41050425675</v>
+        <v>57906.41050425674</v>
       </c>
       <c r="O5" t="n">
-        <v>57906.41050425675</v>
+        <v>57906.41050425674</v>
       </c>
       <c r="P5" t="n">
-        <v>57906.41050425673</v>
+        <v>57906.41050425674</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>149887.0088164217</v>
+        <v>149926.7310172347</v>
       </c>
       <c r="C6" t="n">
-        <v>149887.0088164217</v>
+        <v>149926.7310172349</v>
       </c>
       <c r="D6" t="n">
-        <v>149887.0088164217</v>
+        <v>149926.7310172346</v>
       </c>
       <c r="E6" t="n">
-        <v>-555685.6740842185</v>
+        <v>-550765.2609680485</v>
       </c>
       <c r="F6" t="n">
-        <v>368965.9052919057</v>
+        <v>373886.3184080758</v>
       </c>
       <c r="G6" t="n">
-        <v>368965.9052919052</v>
+        <v>373886.3184080759</v>
       </c>
       <c r="H6" t="n">
-        <v>368965.9052919053</v>
+        <v>373886.3184080754</v>
       </c>
       <c r="I6" t="n">
-        <v>366135.5698402224</v>
+        <v>370859.8716455877</v>
       </c>
       <c r="J6" t="n">
-        <v>371031.0091108708</v>
+        <v>375755.3109162361</v>
       </c>
       <c r="K6" t="n">
-        <v>371031.0091108708</v>
+        <v>375755.3109162358</v>
       </c>
       <c r="L6" t="n">
-        <v>371031.0091108707</v>
+        <v>375755.3109162359</v>
       </c>
       <c r="M6" t="n">
-        <v>218368.5670450465</v>
+        <v>223288.9801612166</v>
       </c>
       <c r="N6" t="n">
-        <v>368965.9052919053</v>
+        <v>373886.3184080756</v>
       </c>
       <c r="O6" t="n">
-        <v>368965.9052919056</v>
+        <v>373886.3184080755</v>
       </c>
       <c r="P6" t="n">
-        <v>368965.9052919053</v>
+        <v>373886.3184080757</v>
       </c>
     </row>
   </sheetData>
@@ -26749,7 +26749,7 @@
         <v>919.4890146074874</v>
       </c>
       <c r="F3" t="n">
-        <v>919.4890146074872</v>
+        <v>919.4890146074874</v>
       </c>
       <c r="G3" t="n">
         <v>919.4890146074874</v>
@@ -26770,13 +26770,13 @@
         <v>919.4890146074874</v>
       </c>
       <c r="M3" t="n">
-        <v>919.4890146074874</v>
+        <v>919.4890146074873</v>
       </c>
       <c r="N3" t="n">
-        <v>919.4890146074874</v>
+        <v>919.4890146074873</v>
       </c>
       <c r="O3" t="n">
-        <v>919.4890146074874</v>
+        <v>919.4890146074873</v>
       </c>
       <c r="P3" t="n">
         <v>919.4890146074873</v>
@@ -26801,37 +26801,37 @@
         <v>622.7228616087749</v>
       </c>
       <c r="F4" t="n">
-        <v>622.7228616087747</v>
+        <v>622.7228616087751</v>
       </c>
       <c r="G4" t="n">
-        <v>622.7228616087747</v>
+        <v>622.7228616087751</v>
       </c>
       <c r="H4" t="n">
-        <v>622.7228616087749</v>
+        <v>622.7228616087751</v>
       </c>
       <c r="I4" t="n">
-        <v>641.1322360870909</v>
+        <v>641.1322360870906</v>
       </c>
       <c r="J4" t="n">
-        <v>641.1322360870909</v>
+        <v>641.1322360870907</v>
       </c>
       <c r="K4" t="n">
         <v>641.1322360870907</v>
       </c>
       <c r="L4" t="n">
-        <v>641.1322360870909</v>
+        <v>641.1322360870907</v>
       </c>
       <c r="M4" t="n">
         <v>622.7228616087749</v>
       </c>
       <c r="N4" t="n">
-        <v>622.7228616087751</v>
+        <v>622.7228616087749</v>
       </c>
       <c r="O4" t="n">
-        <v>622.7228616087751</v>
+        <v>622.7228616087749</v>
       </c>
       <c r="P4" t="n">
-        <v>622.7228616087748</v>
+        <v>622.7228616087749</v>
       </c>
     </row>
   </sheetData>
@@ -27032,7 +27032,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>18.40937447831595</v>
+        <v>18.4093744783155</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>604.3134871304587</v>
+        <v>604.3134871304592</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.696438249678338</v>
+        <v>3.696438249678339</v>
       </c>
       <c r="H14" t="n">
         <v>37.85614822451829</v>
       </c>
       <c r="I14" t="n">
-        <v>142.5069356207242</v>
+        <v>142.5069356207243</v>
       </c>
       <c r="J14" t="n">
-        <v>313.7305758936371</v>
+        <v>313.7305758936372</v>
       </c>
       <c r="K14" t="n">
-        <v>470.2008070025212</v>
+        <v>470.2008070025213</v>
       </c>
       <c r="L14" t="n">
-        <v>583.3256790861147</v>
+        <v>583.325679086115</v>
       </c>
       <c r="M14" t="n">
-        <v>649.0622128088319</v>
+        <v>649.0622128088321</v>
       </c>
       <c r="N14" t="n">
-        <v>659.5647179857306</v>
+        <v>659.5647179857307</v>
       </c>
       <c r="O14" t="n">
-        <v>622.8082601404915</v>
+        <v>622.8082601404917</v>
       </c>
       <c r="P14" t="n">
-        <v>531.5524408515574</v>
+        <v>531.5524408515575</v>
       </c>
       <c r="Q14" t="n">
-        <v>399.1737460349519</v>
+        <v>399.173746034952</v>
       </c>
       <c r="R14" t="n">
         <v>232.1963892013571</v>
       </c>
       <c r="S14" t="n">
-        <v>84.23258661454521</v>
+        <v>84.23258661454523</v>
       </c>
       <c r="T14" t="n">
-        <v>16.18115843796693</v>
+        <v>16.18115843796694</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2957150599742669</v>
+        <v>0.2957150599742671</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,46 +32068,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.977768823872708</v>
+        <v>1.977768823872709</v>
       </c>
       <c r="H15" t="n">
-        <v>19.10108311477063</v>
+        <v>19.10108311477064</v>
       </c>
       <c r="I15" t="n">
-        <v>68.09423362895072</v>
+        <v>68.09423362895073</v>
       </c>
       <c r="J15" t="n">
-        <v>186.8557817326404</v>
+        <v>186.8557817326405</v>
       </c>
       <c r="K15" t="n">
         <v>319.3662929321119</v>
       </c>
       <c r="L15" t="n">
-        <v>429.4273930956949</v>
+        <v>429.427393095695</v>
       </c>
       <c r="M15" t="n">
-        <v>501.1215129610804</v>
+        <v>501.1215129610806</v>
       </c>
       <c r="N15" t="n">
-        <v>514.3847082755602</v>
+        <v>514.3847082755603</v>
       </c>
       <c r="O15" t="n">
-        <v>470.5615148623808</v>
+        <v>470.5615148623809</v>
       </c>
       <c r="P15" t="n">
         <v>377.6671011130263</v>
       </c>
       <c r="Q15" t="n">
-        <v>252.460455482418</v>
+        <v>252.4604554824181</v>
       </c>
       <c r="R15" t="n">
-        <v>122.7951555734301</v>
+        <v>122.7951555734302</v>
       </c>
       <c r="S15" t="n">
         <v>36.73618846096893</v>
       </c>
       <c r="T15" t="n">
-        <v>7.971796268153589</v>
+        <v>7.971796268153591</v>
       </c>
       <c r="U15" t="n">
         <v>0.1301163699916256</v>
@@ -32153,7 +32153,7 @@
         <v>14.74197141452661</v>
       </c>
       <c r="I16" t="n">
-        <v>49.86343705445194</v>
+        <v>49.86343705445195</v>
       </c>
       <c r="J16" t="n">
         <v>117.2273125672529</v>
@@ -32162,34 +32162,34 @@
         <v>192.6404853554702</v>
       </c>
       <c r="L16" t="n">
-        <v>246.513497457227</v>
+        <v>246.5134974572271</v>
       </c>
       <c r="M16" t="n">
         <v>259.9139193258508</v>
       </c>
       <c r="N16" t="n">
-        <v>253.7337472604564</v>
+        <v>253.7337472604565</v>
       </c>
       <c r="O16" t="n">
         <v>234.3641835920855</v>
       </c>
       <c r="P16" t="n">
-        <v>200.5390467268525</v>
+        <v>200.5390467268526</v>
       </c>
       <c r="Q16" t="n">
         <v>138.8428412057306</v>
       </c>
       <c r="R16" t="n">
-        <v>74.55397813522345</v>
+        <v>74.55397813522346</v>
       </c>
       <c r="S16" t="n">
-        <v>28.89607280332053</v>
+        <v>28.89607280332054</v>
       </c>
       <c r="T16" t="n">
-        <v>7.084587489598669</v>
+        <v>7.084587489598671</v>
       </c>
       <c r="U16" t="n">
-        <v>0.09044154242040867</v>
+        <v>0.09044154242040869</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.696438249678339</v>
+        <v>3.696438249678338</v>
       </c>
       <c r="H35" t="n">
         <v>37.85614822451829</v>
@@ -33657,40 +33657,40 @@
         <v>142.5069356207243</v>
       </c>
       <c r="J35" t="n">
-        <v>313.7305758936372</v>
+        <v>313.7305758936371</v>
       </c>
       <c r="K35" t="n">
         <v>470.2008070025213</v>
       </c>
       <c r="L35" t="n">
-        <v>583.325679086115</v>
+        <v>583.3256790861149</v>
       </c>
       <c r="M35" t="n">
-        <v>649.0622128088321</v>
+        <v>649.062212808832</v>
       </c>
       <c r="N35" t="n">
-        <v>659.5647179857307</v>
+        <v>659.5647179857306</v>
       </c>
       <c r="O35" t="n">
-        <v>622.8082601404917</v>
+        <v>622.8082601404916</v>
       </c>
       <c r="P35" t="n">
         <v>531.5524408515575</v>
       </c>
       <c r="Q35" t="n">
-        <v>399.173746034952</v>
+        <v>399.1737460349519</v>
       </c>
       <c r="R35" t="n">
         <v>232.1963892013571</v>
       </c>
       <c r="S35" t="n">
-        <v>84.23258661454523</v>
+        <v>84.23258661454521</v>
       </c>
       <c r="T35" t="n">
-        <v>16.18115843796694</v>
+        <v>16.18115843796693</v>
       </c>
       <c r="U35" t="n">
-        <v>0.2957150599742671</v>
+        <v>0.295715059974267</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33730,10 +33730,10 @@
         <v>1.977768823872709</v>
       </c>
       <c r="H36" t="n">
-        <v>19.10108311477064</v>
+        <v>19.10108311477063</v>
       </c>
       <c r="I36" t="n">
-        <v>68.09423362895073</v>
+        <v>68.09423362895072</v>
       </c>
       <c r="J36" t="n">
         <v>186.8557817326405</v>
@@ -33745,13 +33745,13 @@
         <v>429.427393095695</v>
       </c>
       <c r="M36" t="n">
-        <v>501.1215129610806</v>
+        <v>501.1215129610805</v>
       </c>
       <c r="N36" t="n">
         <v>514.3847082755603</v>
       </c>
       <c r="O36" t="n">
-        <v>470.5615148623809</v>
+        <v>470.5615148623808</v>
       </c>
       <c r="P36" t="n">
         <v>377.6671011130263</v>
@@ -33766,7 +33766,7 @@
         <v>36.73618846096893</v>
       </c>
       <c r="T36" t="n">
-        <v>7.971796268153591</v>
+        <v>7.97179626815359</v>
       </c>
       <c r="U36" t="n">
         <v>0.1301163699916256</v>
@@ -33812,7 +33812,7 @@
         <v>14.74197141452661</v>
       </c>
       <c r="I37" t="n">
-        <v>49.86343705445195</v>
+        <v>49.86343705445194</v>
       </c>
       <c r="J37" t="n">
         <v>117.2273125672529</v>
@@ -33821,7 +33821,7 @@
         <v>192.6404853554702</v>
       </c>
       <c r="L37" t="n">
-        <v>246.5134974572271</v>
+        <v>246.513497457227</v>
       </c>
       <c r="M37" t="n">
         <v>259.9139193258508</v>
@@ -33833,7 +33833,7 @@
         <v>234.3641835920855</v>
       </c>
       <c r="P37" t="n">
-        <v>200.5390467268526</v>
+        <v>200.5390467268525</v>
       </c>
       <c r="Q37" t="n">
         <v>138.8428412057306</v>
@@ -33842,13 +33842,13 @@
         <v>74.55397813522346</v>
       </c>
       <c r="S37" t="n">
-        <v>28.89607280332054</v>
+        <v>28.89607280332053</v>
       </c>
       <c r="T37" t="n">
-        <v>7.084587489598671</v>
+        <v>7.08458748959867</v>
       </c>
       <c r="U37" t="n">
-        <v>0.09044154242040869</v>
+        <v>0.09044154242040868</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.696438249678339</v>
+        <v>3.696438249678338</v>
       </c>
       <c r="H38" t="n">
         <v>37.85614822451829</v>
@@ -33894,40 +33894,40 @@
         <v>142.5069356207243</v>
       </c>
       <c r="J38" t="n">
-        <v>313.7305758936372</v>
+        <v>313.7305758936371</v>
       </c>
       <c r="K38" t="n">
         <v>470.2008070025213</v>
       </c>
       <c r="L38" t="n">
-        <v>583.325679086115</v>
+        <v>583.3256790861149</v>
       </c>
       <c r="M38" t="n">
-        <v>649.0622128088321</v>
+        <v>649.062212808832</v>
       </c>
       <c r="N38" t="n">
-        <v>659.5647179857307</v>
+        <v>659.5647179857306</v>
       </c>
       <c r="O38" t="n">
-        <v>622.8082601404917</v>
+        <v>622.8082601404916</v>
       </c>
       <c r="P38" t="n">
         <v>531.5524408515575</v>
       </c>
       <c r="Q38" t="n">
-        <v>399.173746034952</v>
+        <v>399.1737460349519</v>
       </c>
       <c r="R38" t="n">
         <v>232.1963892013571</v>
       </c>
       <c r="S38" t="n">
-        <v>84.23258661454523</v>
+        <v>84.23258661454521</v>
       </c>
       <c r="T38" t="n">
-        <v>16.18115843796694</v>
+        <v>16.18115843796693</v>
       </c>
       <c r="U38" t="n">
-        <v>0.2957150599742671</v>
+        <v>0.295715059974267</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33967,10 +33967,10 @@
         <v>1.977768823872709</v>
       </c>
       <c r="H39" t="n">
-        <v>19.10108311477064</v>
+        <v>19.10108311477063</v>
       </c>
       <c r="I39" t="n">
-        <v>68.09423362895073</v>
+        <v>68.09423362895072</v>
       </c>
       <c r="J39" t="n">
         <v>186.8557817326405</v>
@@ -33982,13 +33982,13 @@
         <v>429.427393095695</v>
       </c>
       <c r="M39" t="n">
-        <v>501.1215129610806</v>
+        <v>501.1215129610805</v>
       </c>
       <c r="N39" t="n">
         <v>514.3847082755603</v>
       </c>
       <c r="O39" t="n">
-        <v>470.5615148623809</v>
+        <v>470.5615148623808</v>
       </c>
       <c r="P39" t="n">
         <v>377.6671011130263</v>
@@ -34003,7 +34003,7 @@
         <v>36.73618846096893</v>
       </c>
       <c r="T39" t="n">
-        <v>7.971796268153591</v>
+        <v>7.97179626815359</v>
       </c>
       <c r="U39" t="n">
         <v>0.1301163699916256</v>
@@ -34049,7 +34049,7 @@
         <v>14.74197141452661</v>
       </c>
       <c r="I40" t="n">
-        <v>49.86343705445195</v>
+        <v>49.86343705445194</v>
       </c>
       <c r="J40" t="n">
         <v>117.2273125672529</v>
@@ -34058,7 +34058,7 @@
         <v>192.6404853554702</v>
       </c>
       <c r="L40" t="n">
-        <v>246.5134974572271</v>
+        <v>246.513497457227</v>
       </c>
       <c r="M40" t="n">
         <v>259.9139193258508</v>
@@ -34070,7 +34070,7 @@
         <v>234.3641835920855</v>
       </c>
       <c r="P40" t="n">
-        <v>200.5390467268526</v>
+        <v>200.5390467268525</v>
       </c>
       <c r="Q40" t="n">
         <v>138.8428412057306</v>
@@ -34079,13 +34079,13 @@
         <v>74.55397813522346</v>
       </c>
       <c r="S40" t="n">
-        <v>28.89607280332054</v>
+        <v>28.89607280332053</v>
       </c>
       <c r="T40" t="n">
-        <v>7.084587489598671</v>
+        <v>7.08458748959867</v>
       </c>
       <c r="U40" t="n">
-        <v>0.09044154242040869</v>
+        <v>0.09044154242040868</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.696438249678339</v>
+        <v>3.696438249678338</v>
       </c>
       <c r="H41" t="n">
         <v>37.85614822451829</v>
@@ -34131,40 +34131,40 @@
         <v>142.5069356207243</v>
       </c>
       <c r="J41" t="n">
-        <v>313.7305758936372</v>
+        <v>313.7305758936371</v>
       </c>
       <c r="K41" t="n">
         <v>470.2008070025213</v>
       </c>
       <c r="L41" t="n">
-        <v>583.325679086115</v>
+        <v>583.3256790861149</v>
       </c>
       <c r="M41" t="n">
-        <v>649.0622128088321</v>
+        <v>649.062212808832</v>
       </c>
       <c r="N41" t="n">
-        <v>659.5647179857307</v>
+        <v>659.5647179857306</v>
       </c>
       <c r="O41" t="n">
-        <v>622.8082601404917</v>
+        <v>622.8082601404916</v>
       </c>
       <c r="P41" t="n">
         <v>531.5524408515575</v>
       </c>
       <c r="Q41" t="n">
-        <v>399.173746034952</v>
+        <v>399.1737460349519</v>
       </c>
       <c r="R41" t="n">
         <v>232.1963892013571</v>
       </c>
       <c r="S41" t="n">
-        <v>84.23258661454523</v>
+        <v>84.23258661454521</v>
       </c>
       <c r="T41" t="n">
-        <v>16.18115843796694</v>
+        <v>16.18115843796693</v>
       </c>
       <c r="U41" t="n">
-        <v>0.2957150599742671</v>
+        <v>0.295715059974267</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34204,10 +34204,10 @@
         <v>1.977768823872709</v>
       </c>
       <c r="H42" t="n">
-        <v>19.10108311477064</v>
+        <v>19.10108311477063</v>
       </c>
       <c r="I42" t="n">
-        <v>68.09423362895073</v>
+        <v>68.09423362895072</v>
       </c>
       <c r="J42" t="n">
         <v>186.8557817326405</v>
@@ -34219,13 +34219,13 @@
         <v>429.427393095695</v>
       </c>
       <c r="M42" t="n">
-        <v>501.1215129610806</v>
+        <v>501.1215129610805</v>
       </c>
       <c r="N42" t="n">
         <v>514.3847082755603</v>
       </c>
       <c r="O42" t="n">
-        <v>470.5615148623809</v>
+        <v>470.5615148623808</v>
       </c>
       <c r="P42" t="n">
         <v>377.6671011130263</v>
@@ -34240,7 +34240,7 @@
         <v>36.73618846096893</v>
       </c>
       <c r="T42" t="n">
-        <v>7.971796268153591</v>
+        <v>7.97179626815359</v>
       </c>
       <c r="U42" t="n">
         <v>0.1301163699916256</v>
@@ -34286,7 +34286,7 @@
         <v>14.74197141452661</v>
       </c>
       <c r="I43" t="n">
-        <v>49.86343705445195</v>
+        <v>49.86343705445194</v>
       </c>
       <c r="J43" t="n">
         <v>117.2273125672529</v>
@@ -34295,7 +34295,7 @@
         <v>192.6404853554702</v>
       </c>
       <c r="L43" t="n">
-        <v>246.5134974572271</v>
+        <v>246.513497457227</v>
       </c>
       <c r="M43" t="n">
         <v>259.9139193258508</v>
@@ -34307,7 +34307,7 @@
         <v>234.3641835920855</v>
       </c>
       <c r="P43" t="n">
-        <v>200.5390467268526</v>
+        <v>200.5390467268525</v>
       </c>
       <c r="Q43" t="n">
         <v>138.8428412057306</v>
@@ -34316,13 +34316,13 @@
         <v>74.55397813522346</v>
       </c>
       <c r="S43" t="n">
-        <v>28.89607280332054</v>
+        <v>28.89607280332053</v>
       </c>
       <c r="T43" t="n">
-        <v>7.084587489598671</v>
+        <v>7.08458748959867</v>
       </c>
       <c r="U43" t="n">
-        <v>0.09044154242040869</v>
+        <v>0.09044154242040868</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34368,7 +34368,7 @@
         <v>142.5069356207243</v>
       </c>
       <c r="J44" t="n">
-        <v>313.7305758936371</v>
+        <v>313.7305758936378</v>
       </c>
       <c r="K44" t="n">
         <v>470.2008070025213</v>
@@ -35488,10 +35488,10 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>92.62341400781919</v>
+        <v>60.01815506597379</v>
       </c>
       <c r="K12" t="n">
-        <v>445.9900909703316</v>
+        <v>181.524853957753</v>
       </c>
       <c r="L12" t="n">
         <v>290.8730133158208</v>
@@ -35506,13 +35506,13 @@
         <v>327.9652704179364</v>
       </c>
       <c r="P12" t="n">
-        <v>243.6926936986961</v>
+        <v>518.1258682323331</v>
       </c>
       <c r="Q12" t="n">
         <v>322.5559691322457</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>22.63732142078703</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>132.6846713669508</v>
+        <v>132.6846713669509</v>
       </c>
       <c r="K14" t="n">
-        <v>250.1109559575407</v>
+        <v>250.1109559575408</v>
       </c>
       <c r="L14" t="n">
-        <v>347.5592641161275</v>
+        <v>347.5592641161277</v>
       </c>
       <c r="M14" t="n">
-        <v>418.7159795815592</v>
+        <v>418.7159795815594</v>
       </c>
       <c r="N14" t="n">
-        <v>430.1516543891397</v>
+        <v>430.1516543891398</v>
       </c>
       <c r="O14" t="n">
-        <v>392.7100487188047</v>
+        <v>392.710048718805</v>
       </c>
       <c r="P14" t="n">
-        <v>300.3194450962879</v>
+        <v>300.319445096288</v>
       </c>
       <c r="Q14" t="n">
-        <v>176.8680561605024</v>
+        <v>176.8680561605025</v>
       </c>
       <c r="R14" t="n">
-        <v>16.61085138722495</v>
+        <v>16.61085138722501</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,31 +35725,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>92.62341400781882</v>
+        <v>186.1091904063826</v>
       </c>
       <c r="K15" t="n">
-        <v>445.9900909703315</v>
+        <v>329.866993150982</v>
       </c>
       <c r="L15" t="n">
-        <v>290.8730133158207</v>
+        <v>290.8730133158208</v>
       </c>
       <c r="M15" t="n">
-        <v>358.9874790390621</v>
+        <v>358.9874790390623</v>
       </c>
       <c r="N15" t="n">
-        <v>383.042996192227</v>
+        <v>383.0429961922271</v>
       </c>
       <c r="O15" t="n">
-        <v>327.9652704179363</v>
+        <v>327.9652704179364</v>
       </c>
       <c r="P15" t="n">
-        <v>243.692693698696</v>
+        <v>243.6926936986961</v>
       </c>
       <c r="Q15" t="n">
-        <v>322.5559691322456</v>
+        <v>322.5559691322457</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>22.63732142078703</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>23.86813245058012</v>
+        <v>23.86813245058015</v>
       </c>
       <c r="K16" t="n">
         <v>170.3709935295874</v>
       </c>
       <c r="L16" t="n">
-        <v>274.1035227175431</v>
+        <v>274.1035227175432</v>
       </c>
       <c r="M16" t="n">
         <v>299.4977962876914</v>
       </c>
       <c r="N16" t="n">
-        <v>297.865919639685</v>
+        <v>297.8659196396851</v>
       </c>
       <c r="O16" t="n">
-        <v>258.9493115061251</v>
+        <v>258.9493115061252</v>
       </c>
       <c r="P16" t="n">
-        <v>197.817605991746</v>
+        <v>197.8176059917461</v>
       </c>
       <c r="Q16" t="n">
-        <v>52.68079795403618</v>
+        <v>52.68079795403621</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35907,7 +35907,7 @@
         <v>176.8680561605025</v>
       </c>
       <c r="R17" t="n">
-        <v>16.61085138722421</v>
+        <v>16.61085138722501</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,10 +35962,10 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>60.01815506597379</v>
+        <v>186.1091904063826</v>
       </c>
       <c r="K18" t="n">
-        <v>445.9900909703316</v>
+        <v>329.866993150982</v>
       </c>
       <c r="L18" t="n">
         <v>290.8730133158208</v>
@@ -35980,13 +35980,13 @@
         <v>327.9652704179364</v>
       </c>
       <c r="P18" t="n">
-        <v>486.37524037639</v>
+        <v>243.6926936986961</v>
       </c>
       <c r="Q18" t="n">
-        <v>112.4786813963966</v>
+        <v>322.5559691322457</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>22.63732142078703</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36144,7 +36144,7 @@
         <v>176.8680561605025</v>
       </c>
       <c r="R20" t="n">
-        <v>16.61085138722501</v>
+        <v>16.61085138722605</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36211,19 +36211,19 @@
         <v>358.9874790390623</v>
       </c>
       <c r="N21" t="n">
-        <v>622.7228616087749</v>
+        <v>383.0429961922271</v>
       </c>
       <c r="O21" t="n">
-        <v>327.9652704179364</v>
+        <v>498.9447310319526</v>
       </c>
       <c r="P21" t="n">
         <v>243.6926936986961</v>
       </c>
       <c r="Q21" t="n">
-        <v>231.2182429089257</v>
+        <v>322.5559691322457</v>
       </c>
       <c r="R21" t="n">
-        <v>22.63732142078703</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36357,7 +36357,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>132.6846713669509</v>
+        <v>139.8619362969963</v>
       </c>
       <c r="K23" t="n">
         <v>250.1109559575408</v>
@@ -36378,7 +36378,7 @@
         <v>300.319445096288</v>
       </c>
       <c r="Q23" t="n">
-        <v>184.0453210905487</v>
+        <v>176.8680561605025</v>
       </c>
       <c r="R23" t="n">
         <v>82.32727126020745</v>
@@ -36436,10 +36436,10 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>186.1091904063826</v>
+        <v>60.01815506597379</v>
       </c>
       <c r="K24" t="n">
-        <v>317.012518470709</v>
+        <v>445.9900909703316</v>
       </c>
       <c r="L24" t="n">
         <v>290.8730133158208</v>
@@ -36454,10 +36454,10 @@
         <v>327.9652704179364</v>
       </c>
       <c r="P24" t="n">
-        <v>562.1554623386332</v>
+        <v>349.1916374435695</v>
       </c>
       <c r="Q24" t="n">
-        <v>112.4786813963966</v>
+        <v>322.5559691322457</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36594,7 +36594,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>139.8619362969972</v>
+        <v>132.6846713669509</v>
       </c>
       <c r="K26" t="n">
         <v>250.1109559575408</v>
@@ -36603,7 +36603,7 @@
         <v>347.5592641161277</v>
       </c>
       <c r="M26" t="n">
-        <v>418.7159795815594</v>
+        <v>491.6096643845877</v>
       </c>
       <c r="N26" t="n">
         <v>430.1516543891398</v>
@@ -36618,7 +36618,7 @@
         <v>176.8680561605025</v>
       </c>
       <c r="R26" t="n">
-        <v>82.32727126020745</v>
+        <v>16.61085138722501</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36676,10 +36676,10 @@
         <v>186.1091904063826</v>
       </c>
       <c r="K27" t="n">
-        <v>445.9900909703316</v>
+        <v>181.524853957753</v>
       </c>
       <c r="L27" t="n">
-        <v>290.8730133158208</v>
+        <v>534.7461587328644</v>
       </c>
       <c r="M27" t="n">
         <v>358.9874790390623</v>
@@ -36694,7 +36694,7 @@
         <v>243.6926936986961</v>
       </c>
       <c r="Q27" t="n">
-        <v>301.9638775367111</v>
+        <v>322.5559691322457</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36831,7 +36831,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>139.8619362969968</v>
+        <v>132.6846713669509</v>
       </c>
       <c r="K29" t="n">
         <v>250.1109559575408</v>
@@ -36843,7 +36843,7 @@
         <v>418.7159795815594</v>
       </c>
       <c r="N29" t="n">
-        <v>430.1516543891398</v>
+        <v>503.0453391921682</v>
       </c>
       <c r="O29" t="n">
         <v>392.710048718805</v>
@@ -36855,7 +36855,7 @@
         <v>176.8680561605025</v>
       </c>
       <c r="R29" t="n">
-        <v>82.32727126020745</v>
+        <v>16.61085138722501</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,13 +36910,13 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>60.01815506597379</v>
+        <v>186.1091904063826</v>
       </c>
       <c r="K30" t="n">
-        <v>181.524853957753</v>
+        <v>425.3979993747965</v>
       </c>
       <c r="L30" t="n">
-        <v>641.1322360870907</v>
+        <v>290.8730133158208</v>
       </c>
       <c r="M30" t="n">
         <v>358.9874790390623</v>
@@ -36925,13 +36925,13 @@
         <v>383.0429961922271</v>
       </c>
       <c r="O30" t="n">
-        <v>557.7475161399677</v>
+        <v>327.9652704179364</v>
       </c>
       <c r="P30" t="n">
         <v>243.6926936986961</v>
       </c>
       <c r="Q30" t="n">
-        <v>112.4786813963966</v>
+        <v>322.5559691322457</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37089,7 +37089,7 @@
         <v>300.319445096288</v>
       </c>
       <c r="Q32" t="n">
-        <v>249.7617409635312</v>
+        <v>249.7617409635307</v>
       </c>
       <c r="R32" t="n">
         <v>16.61085138722501</v>
@@ -37150,10 +37150,10 @@
         <v>186.1091904063826</v>
       </c>
       <c r="K33" t="n">
-        <v>285.2160643393762</v>
+        <v>425.3979993747965</v>
       </c>
       <c r="L33" t="n">
-        <v>641.1322360870909</v>
+        <v>290.8730133158208</v>
       </c>
       <c r="M33" t="n">
         <v>358.9874790390623</v>
@@ -37168,7 +37168,7 @@
         <v>243.6926936986961</v>
       </c>
       <c r="Q33" t="n">
-        <v>112.4786813963966</v>
+        <v>322.5559691322457</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37308,28 +37308,28 @@
         <v>132.6846713669509</v>
       </c>
       <c r="K35" t="n">
-        <v>250.1109559575408</v>
+        <v>250.1109559575407</v>
       </c>
       <c r="L35" t="n">
-        <v>347.5592641161277</v>
+        <v>347.5592641161276</v>
       </c>
       <c r="M35" t="n">
-        <v>418.7159795815594</v>
+        <v>418.7159795815593</v>
       </c>
       <c r="N35" t="n">
-        <v>430.1516543891398</v>
+        <v>430.1516543891397</v>
       </c>
       <c r="O35" t="n">
-        <v>392.710048718805</v>
+        <v>392.7100487188048</v>
       </c>
       <c r="P35" t="n">
         <v>300.319445096288</v>
       </c>
       <c r="Q35" t="n">
-        <v>176.8680561605025</v>
+        <v>176.8680561605024</v>
       </c>
       <c r="R35" t="n">
-        <v>16.61085138722501</v>
+        <v>16.61085138722498</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,16 +37384,16 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>92.62341400781919</v>
+        <v>186.1091904063826</v>
       </c>
       <c r="K36" t="n">
-        <v>445.9900909703316</v>
+        <v>352.5043145717682</v>
       </c>
       <c r="L36" t="n">
         <v>290.8730133158208</v>
       </c>
       <c r="M36" t="n">
-        <v>358.9874790390623</v>
+        <v>358.9874790390622</v>
       </c>
       <c r="N36" t="n">
         <v>383.0429961922271</v>
@@ -37463,7 +37463,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>23.86813245058015</v>
+        <v>23.86813245058013</v>
       </c>
       <c r="K37" t="n">
         <v>170.3709935295874</v>
@@ -37475,13 +37475,13 @@
         <v>299.4977962876914</v>
       </c>
       <c r="N37" t="n">
-        <v>297.8659196396851</v>
+        <v>297.865919639685</v>
       </c>
       <c r="O37" t="n">
         <v>258.9493115061252</v>
       </c>
       <c r="P37" t="n">
-        <v>197.8176059917461</v>
+        <v>197.817605991746</v>
       </c>
       <c r="Q37" t="n">
         <v>52.68079795403621</v>
@@ -37545,28 +37545,28 @@
         <v>132.6846713669509</v>
       </c>
       <c r="K38" t="n">
-        <v>250.1109559575408</v>
+        <v>250.1109559575407</v>
       </c>
       <c r="L38" t="n">
-        <v>347.5592641161277</v>
+        <v>347.5592641161276</v>
       </c>
       <c r="M38" t="n">
-        <v>418.7159795815594</v>
+        <v>418.7159795815593</v>
       </c>
       <c r="N38" t="n">
-        <v>430.1516543891398</v>
+        <v>430.1516543891397</v>
       </c>
       <c r="O38" t="n">
-        <v>392.710048718805</v>
+        <v>392.7100487188048</v>
       </c>
       <c r="P38" t="n">
         <v>300.319445096288</v>
       </c>
       <c r="Q38" t="n">
-        <v>176.8680561605025</v>
+        <v>176.8680561605024</v>
       </c>
       <c r="R38" t="n">
-        <v>16.61085138722605</v>
+        <v>16.61085138722559</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37624,16 +37624,16 @@
         <v>186.1091904063826</v>
       </c>
       <c r="K39" t="n">
-        <v>322.90173689107</v>
+        <v>352.5043145717682</v>
       </c>
       <c r="L39" t="n">
         <v>290.8730133158208</v>
       </c>
       <c r="M39" t="n">
-        <v>358.9874790390623</v>
+        <v>358.9874790390622</v>
       </c>
       <c r="N39" t="n">
-        <v>622.7228616087751</v>
+        <v>383.0429961922271</v>
       </c>
       <c r="O39" t="n">
         <v>327.9652704179364</v>
@@ -37642,7 +37642,7 @@
         <v>243.6926936986961</v>
       </c>
       <c r="Q39" t="n">
-        <v>112.4786813963966</v>
+        <v>322.5559691322457</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,7 +37700,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>23.86813245058015</v>
+        <v>23.86813245058013</v>
       </c>
       <c r="K40" t="n">
         <v>170.3709935295874</v>
@@ -37712,13 +37712,13 @@
         <v>299.4977962876914</v>
       </c>
       <c r="N40" t="n">
-        <v>297.8659196396851</v>
+        <v>297.865919639685</v>
       </c>
       <c r="O40" t="n">
         <v>258.9493115061252</v>
       </c>
       <c r="P40" t="n">
-        <v>197.8176059917461</v>
+        <v>197.817605991746</v>
       </c>
       <c r="Q40" t="n">
         <v>52.68079795403621</v>
@@ -37782,28 +37782,28 @@
         <v>132.6846713669509</v>
       </c>
       <c r="K41" t="n">
-        <v>250.1109559575408</v>
+        <v>250.1109559575407</v>
       </c>
       <c r="L41" t="n">
-        <v>347.5592641161277</v>
+        <v>347.5592641161276</v>
       </c>
       <c r="M41" t="n">
-        <v>418.7159795815594</v>
+        <v>418.7159795815593</v>
       </c>
       <c r="N41" t="n">
-        <v>430.1516543891398</v>
+        <v>430.1516543891397</v>
       </c>
       <c r="O41" t="n">
-        <v>392.710048718805</v>
+        <v>392.7100487188048</v>
       </c>
       <c r="P41" t="n">
         <v>300.319445096288</v>
       </c>
       <c r="Q41" t="n">
-        <v>176.8680561605025</v>
+        <v>176.8680561605024</v>
       </c>
       <c r="R41" t="n">
-        <v>16.61085138722501</v>
+        <v>16.61085138722559</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,16 +37858,16 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>60.01815506597379</v>
+        <v>186.1091904063826</v>
       </c>
       <c r="K42" t="n">
         <v>181.524853957753</v>
       </c>
       <c r="L42" t="n">
-        <v>456.9207069453706</v>
+        <v>290.8730133158208</v>
       </c>
       <c r="M42" t="n">
-        <v>358.9874790390623</v>
+        <v>358.9874790390622</v>
       </c>
       <c r="N42" t="n">
         <v>383.0429961922271</v>
@@ -37876,13 +37876,13 @@
         <v>327.9652704179364</v>
       </c>
       <c r="P42" t="n">
-        <v>562.1554623386332</v>
+        <v>392.0348328919244</v>
       </c>
       <c r="Q42" t="n">
-        <v>112.4786813963966</v>
+        <v>322.5559691322457</v>
       </c>
       <c r="R42" t="n">
-        <v>22.63732142078703</v>
+        <v>22.63732142078702</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,7 +37937,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>23.86813245058015</v>
+        <v>23.86813245058013</v>
       </c>
       <c r="K43" t="n">
         <v>170.3709935295874</v>
@@ -37949,13 +37949,13 @@
         <v>299.4977962876914</v>
       </c>
       <c r="N43" t="n">
-        <v>297.8659196396851</v>
+        <v>297.865919639685</v>
       </c>
       <c r="O43" t="n">
         <v>258.9493115061252</v>
       </c>
       <c r="P43" t="n">
-        <v>197.8176059917461</v>
+        <v>197.817605991746</v>
       </c>
       <c r="Q43" t="n">
         <v>52.68079795403621</v>
@@ -38016,7 +38016,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>132.6846713669509</v>
+        <v>132.6846713669515</v>
       </c>
       <c r="K44" t="n">
         <v>250.1109559575407</v>
@@ -38095,10 +38095,10 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>60.01815506597376</v>
+        <v>186.1091904063826</v>
       </c>
       <c r="K45" t="n">
-        <v>445.9900909703316</v>
+        <v>181.524853957753</v>
       </c>
       <c r="L45" t="n">
         <v>290.8730133158208</v>
@@ -38113,13 +38113,13 @@
         <v>327.9652704179364</v>
       </c>
       <c r="P45" t="n">
-        <v>486.3752403763905</v>
+        <v>392.0348328919244</v>
       </c>
       <c r="Q45" t="n">
-        <v>112.4786813963966</v>
+        <v>322.5559691322457</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>22.63732142078702</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
